--- a/nzx_scrape.xlsx
+++ b/nzx_scrape.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGPC\Documents\UiPath\softeng762-RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC2FB0-56DC-45B4-84BD-9BBB92A1CD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802A5FD-41B5-4A74-9552-4562F6CD0D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="3105" windowWidth="28875" windowHeight="15435" xr2:uid="{A593A529-D6C1-44DE-AB42-3DF7462AA7A8}"/>
+    <workbookView xWindow="6420" yWindow="3705" windowWidth="26985" windowHeight="15045" xr2:uid="{030087BA-9679-4CB3-8B5D-A7DC707A746C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Company name</t>
   </si>
   <si>
-    <t>company url</t>
-  </si>
-  <si>
-    <t>CEO</t>
+    <t>Chief Executive Officer</t>
   </si>
   <si>
     <t>Media Contact</t>
@@ -54,7 +51,7 @@
     <t>Solicitor</t>
   </si>
   <si>
-    <t>CFO</t>
+    <t>Chief Financial Officer</t>
   </si>
   <si>
     <t>Website</t>
@@ -63,115 +60,154 @@
     <t>Ascension Capital Limited</t>
   </si>
   <si>
-    <t>/companies/ACE</t>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>+64 9 520 1020</t>
+  </si>
+  <si>
+    <t>BDO Wellington</t>
+  </si>
+  <si>
+    <t>Duncan Cotterill</t>
   </si>
   <si>
     <t>AFC Group Holdings Limited</t>
   </si>
   <si>
-    <t>/companies/AFC</t>
+    <t>William Buck</t>
+  </si>
+  <si>
+    <t>DLA Piper</t>
+  </si>
+  <si>
+    <t>Hao Long</t>
+  </si>
+  <si>
+    <t>http://www.afcnz.com</t>
   </si>
   <si>
     <t>Australian Foundation Investment Company Limited</t>
   </si>
   <si>
-    <t>/companies/AFI</t>
+    <t>+6139650 9911</t>
+  </si>
+  <si>
+    <t>PriceWaterhouseCoopers</t>
+  </si>
+  <si>
+    <t>http://www.afi.com.au/</t>
   </si>
   <si>
     <t>AFT Pharmaceuticals Limited</t>
   </si>
   <si>
-    <t>/companies/AFT</t>
+    <t>+64 9 488 0232</t>
+  </si>
+  <si>
+    <t>Deloitte</t>
+  </si>
+  <si>
+    <t>Harmos Horton Lusk Limited</t>
+  </si>
+  <si>
+    <t>http://www.aftpharm.com</t>
   </si>
   <si>
     <t>Smartshares Global Aggregate Bond ETF</t>
   </si>
   <si>
-    <t>/companies/AGG</t>
+    <t>0800 80 87 80</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>https://smartshares.co.nz/</t>
   </si>
   <si>
     <t>Accordant Group Limited</t>
   </si>
   <si>
-    <t>/companies/AGL</t>
+    <t>Jason Cherrington</t>
+  </si>
+  <si>
+    <t>+64 9 526 8775</t>
+  </si>
+  <si>
+    <t>Deloitte, Auckland</t>
+  </si>
+  <si>
+    <t>MinterEllisonRuddWatts</t>
+  </si>
+  <si>
+    <t>Tony Staub</t>
+  </si>
+  <si>
+    <t>https://accordant.nz/</t>
   </si>
   <si>
     <t>Auckland International Airport Limited</t>
   </si>
   <si>
-    <t>/companies/AIA</t>
+    <t>Adrian Littlewood</t>
+  </si>
+  <si>
+    <t>+64 9 257 7059</t>
+  </si>
+  <si>
+    <t>Russell McVeagh, Auckland</t>
+  </si>
+  <si>
+    <t>Phil Neutze</t>
+  </si>
+  <si>
+    <t>http://www.aucklandairport.co.nz/</t>
   </si>
   <si>
     <t>Air New Zealand Limited (NS)</t>
   </si>
   <si>
-    <t>/companies/AIR</t>
+    <t>Greg Foran</t>
+  </si>
+  <si>
+    <t>027 909 0691</t>
+  </si>
+  <si>
+    <t>Bell Gully, Auckland</t>
+  </si>
+  <si>
+    <t>Richard Thomson</t>
   </si>
   <si>
     <t>Auckland Real Estate Trust</t>
   </si>
   <si>
-    <t>/companies/AKL</t>
+    <t>+64 9 375 5998</t>
+  </si>
+  <si>
+    <t>Pitcher Partners</t>
+  </si>
+  <si>
+    <t>PwC Legal (NZ)</t>
+  </si>
+  <si>
+    <t>Kate Baguley</t>
   </si>
   <si>
     <t>Allied Farmers Limited</t>
   </si>
   <si>
-    <t>/companies/ALF</t>
-  </si>
-  <si>
-    <t>http://www.afcnz.com</t>
-  </si>
-  <si>
-    <t>http://www.afi.com.au/</t>
-  </si>
-  <si>
-    <t>http://www.aftpharm.com</t>
-  </si>
-  <si>
-    <t>https://smartshares.co.nz/</t>
-  </si>
-  <si>
-    <t>https://accordant.nz/</t>
-  </si>
-  <si>
-    <t>http://www.aucklandairport.co.nz/</t>
-  </si>
-  <si>
-    <t>https://aucklandrealestate.co</t>
+    <t>Steve Morrison</t>
+  </si>
+  <si>
+    <t>+646278 0800</t>
+  </si>
+  <si>
+    <t>Brian Lee</t>
   </si>
   <si>
     <t>http://www.alliedfarmers.co.nz/</t>
-  </si>
-  <si>
-    <t>unavailable</t>
-  </si>
-  <si>
-    <t>+64 9 520 1020</t>
-  </si>
-  <si>
-    <t>+6139650 9911</t>
-  </si>
-  <si>
-    <t>+64 9 488 0232</t>
-  </si>
-  <si>
-    <t>0800 80 87 80</t>
-  </si>
-  <si>
-    <t>+64 9 526 8775</t>
-  </si>
-  <si>
-    <t>+64 9 257 7059</t>
-  </si>
-  <si>
-    <t>027 909 0691</t>
-  </si>
-  <si>
-    <t>+64 9 375 5998</t>
-  </si>
-  <si>
-    <t>http://www.airnewzealand.com/</t>
   </si>
 </sst>
 </file>
@@ -207,9 +243,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,19 +558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA54B87-3C43-4566-8015-581B13CDA3D0}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C32C02-EE8B-4275-93CF-66F891E3C800}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,178 +587,235 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6499300245</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>6499300245</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-1.8E-3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/nzx_scrape.xlsx
+++ b/nzx_scrape.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGPC\Documents\UiPath\softeng762-RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802A5FD-41B5-4A74-9552-4562F6CD0D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB7A3A-1F95-4FB1-890D-A72514BE2DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="3705" windowWidth="26985" windowHeight="15045" xr2:uid="{030087BA-9679-4CB3-8B5D-A7DC707A746C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="691">
   <si>
     <t>Company name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Hao Long</t>
   </si>
   <si>
-    <t>http://www.afcnz.com</t>
-  </si>
-  <si>
     <t>Australian Foundation Investment Company Limited</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>PriceWaterhouseCoopers</t>
   </si>
   <si>
-    <t>http://www.afi.com.au/</t>
-  </si>
-  <si>
     <t>AFT Pharmaceuticals Limited</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>Harmos Horton Lusk Limited</t>
   </si>
   <si>
-    <t>http://www.aftpharm.com</t>
-  </si>
-  <si>
     <t>Smartshares Global Aggregate Bond ETF</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>Tony Staub</t>
   </si>
   <si>
-    <t>https://accordant.nz/</t>
-  </si>
-  <si>
     <t>Auckland International Airport Limited</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>Phil Neutze</t>
   </si>
   <si>
-    <t>http://www.aucklandairport.co.nz/</t>
-  </si>
-  <si>
     <t>Air New Zealand Limited (NS)</t>
   </si>
   <si>
@@ -207,7 +192,1921 @@
     <t>Brian Lee</t>
   </si>
   <si>
-    <t>http://www.alliedfarmers.co.nz/</t>
+    <t>/about-nzx/organization-structure</t>
+  </si>
+  <si>
+    <t>https://companyresearch.nzx.com</t>
+  </si>
+  <si>
+    <t>AMP Limited</t>
+  </si>
+  <si>
+    <t>+61 2 9257 5000</t>
+  </si>
+  <si>
+    <t>Ernst and Young</t>
+  </si>
+  <si>
+    <t>James Georgeson</t>
+  </si>
+  <si>
+    <t>Australia and New Zealand Banking Group Limited</t>
+  </si>
+  <si>
+    <t>KPMG, Wellington</t>
+  </si>
+  <si>
+    <t>Smartshares Asia Pacific ETF</t>
+  </si>
+  <si>
+    <t>+0800 80 87 80</t>
+  </si>
+  <si>
+    <t>Asset Plus Limited</t>
+  </si>
+  <si>
+    <t>Grant Thornton, New Zealand</t>
+  </si>
+  <si>
+    <t>David Stock</t>
+  </si>
+  <si>
+    <t>Simon Woollams</t>
+  </si>
+  <si>
+    <t>ArborGen Holdings Limited</t>
+  </si>
+  <si>
+    <t>Andrew Baum</t>
+  </si>
+  <si>
+    <t>Alex Brown</t>
+  </si>
+  <si>
+    <t>Argosy Property Limited</t>
+  </si>
+  <si>
+    <t>Peter Mence</t>
+  </si>
+  <si>
+    <t>Harmos Horton Lusk, Auckland</t>
+  </si>
+  <si>
+    <t>David Fraser</t>
+  </si>
+  <si>
+    <t>Arvida Group Limited</t>
+  </si>
+  <si>
+    <t>Bill McDonald</t>
+  </si>
+  <si>
+    <t>+64 9 972 1180</t>
+  </si>
+  <si>
+    <t>Chapman Tripp</t>
+  </si>
+  <si>
+    <t>Jeremy Nicoll</t>
+  </si>
+  <si>
+    <t>Smartshares Australian Dividend ETF</t>
+  </si>
+  <si>
+    <t>Smartshares Australian Financials ETF</t>
+  </si>
+  <si>
+    <t>Smartshares Australian Property ETF</t>
+  </si>
+  <si>
+    <t>Smartshares Australian Resources ETF</t>
+  </si>
+  <si>
+    <t>The a2 Milk Company Limited</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young</t>
+  </si>
+  <si>
+    <t>Simpson Grierson, Auckland</t>
+  </si>
+  <si>
+    <t>Race Strauss</t>
+  </si>
+  <si>
+    <t>Smartshares S&amp;P/ASX 200 ETF</t>
+  </si>
+  <si>
+    <t>Burger Fuel Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 376 6007</t>
+  </si>
+  <si>
+    <t>Staples Rodway</t>
+  </si>
+  <si>
+    <t>Kensington Swan</t>
+  </si>
+  <si>
+    <t>Blackwell Global Holdings Limited</t>
+  </si>
+  <si>
+    <t>+64 21 865 704</t>
+  </si>
+  <si>
+    <t>William Buck (NZ) Limited</t>
+  </si>
+  <si>
+    <t>Briscoe Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 815 3737</t>
+  </si>
+  <si>
+    <t>PricewaterhouseCoopers, Auckland</t>
+  </si>
+  <si>
+    <t>The Bankers Investment Trust Plc</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young LLP</t>
+  </si>
+  <si>
+    <t>Norton Rose</t>
+  </si>
+  <si>
+    <t>http://www.bankersinvestmenttrust.com/</t>
+  </si>
+  <si>
+    <t>Blis Technologies Limited</t>
+  </si>
+  <si>
+    <t>Brian Watson</t>
+  </si>
+  <si>
+    <t>+64 3 474 0988</t>
+  </si>
+  <si>
+    <t>Deloitte, Dunedin</t>
+  </si>
+  <si>
+    <t>Anderson Lloyd, Dunedin</t>
+  </si>
+  <si>
+    <t>Richard Wingham</t>
+  </si>
+  <si>
+    <t>http://www.blis.co.nz/</t>
+  </si>
+  <si>
+    <t>Smartshares Automation and Robotics ETF</t>
+  </si>
+  <si>
+    <t>Barramundi Limited</t>
+  </si>
+  <si>
+    <t>+64 9 489 7074</t>
+  </si>
+  <si>
+    <t>http://www.barramundi.co.nz/</t>
+  </si>
+  <si>
+    <t>Bremworth Limited</t>
+  </si>
+  <si>
+    <t>Greg Smith</t>
+  </si>
+  <si>
+    <t>0800 808 303</t>
+  </si>
+  <si>
+    <t>PWC</t>
+  </si>
+  <si>
+    <t>https://bremworth.co.nz/investor-centre</t>
+  </si>
+  <si>
+    <t>Cannasouth Limited</t>
+  </si>
+  <si>
+    <t>Mark Lucas</t>
+  </si>
+  <si>
+    <t>+64 7 949 8393</t>
+  </si>
+  <si>
+    <t>Corporate Counsel</t>
+  </si>
+  <si>
+    <t>https://cannasouth.co.nz/</t>
+  </si>
+  <si>
+    <t>CDL Investments New Zealand Limited</t>
+  </si>
+  <si>
+    <t>+64 9 353 5077</t>
+  </si>
+  <si>
+    <t>KPMG, Auckland</t>
+  </si>
+  <si>
+    <t>http://www.cdlinvestments.co.nz/</t>
+  </si>
+  <si>
+    <t>Contact Energy Limited</t>
+  </si>
+  <si>
+    <t>Mike Fuge</t>
+  </si>
+  <si>
+    <t>+64 4 499 4001</t>
+  </si>
+  <si>
+    <t>Bell Gully, Wellington</t>
+  </si>
+  <si>
+    <t>Dorian Devers</t>
+  </si>
+  <si>
+    <t>http://www.contactenergy.co.nz/</t>
+  </si>
+  <si>
+    <t>Cooks Global Foods Limited</t>
+  </si>
+  <si>
+    <t>Richard Chew</t>
+  </si>
+  <si>
+    <t>http://www.cooksglobalfoods.com</t>
+  </si>
+  <si>
+    <t>The Colonial Motor Company Limited</t>
+  </si>
+  <si>
+    <t>Graeme Gibbons</t>
+  </si>
+  <si>
+    <t>+64 4 384 9734</t>
+  </si>
+  <si>
+    <t>Grant Thornton, Wellington</t>
+  </si>
+  <si>
+    <t>O'Regan Arndt Peters &amp; Evans</t>
+  </si>
+  <si>
+    <t>http://www.colmotor.co.nz/</t>
+  </si>
+  <si>
+    <t>Chorus Limited (NS)</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste Rousselot</t>
+  </si>
+  <si>
+    <t>+64 9 975 2983</t>
+  </si>
+  <si>
+    <t>Chapman Tripp, Wellington</t>
+  </si>
+  <si>
+    <t>David Collins</t>
+  </si>
+  <si>
+    <t>http://www.chorus.co.nz</t>
+  </si>
+  <si>
+    <t>Carbon Fund</t>
+  </si>
+  <si>
+    <t>+64 9 967 7276</t>
+  </si>
+  <si>
+    <t>PricewaterhouseCoopers</t>
+  </si>
+  <si>
+    <t>http://www.carbonfund.co.nz</t>
+  </si>
+  <si>
+    <t>Chatham Rock Phosphate Limited</t>
+  </si>
+  <si>
+    <t>+64 21 558 185</t>
+  </si>
+  <si>
+    <t>Grant Thornton</t>
+  </si>
+  <si>
+    <t>Robyn Hamilton</t>
+  </si>
+  <si>
+    <t>http://www.rockphosphate.co.nz</t>
+  </si>
+  <si>
+    <t>Comvita Limited</t>
+  </si>
+  <si>
+    <t>+64 7 533 1426</t>
+  </si>
+  <si>
+    <t>KPMG, Tauranga</t>
+  </si>
+  <si>
+    <t>Sharp Tudhope</t>
+  </si>
+  <si>
+    <t>Nigel Greenwood</t>
+  </si>
+  <si>
+    <t>http://www.comvita.co.nz/</t>
+  </si>
+  <si>
+    <t>DGL Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 309 9254</t>
+  </si>
+  <si>
+    <t>PKF Melbourne Audit &amp; Assurance Pty Ltd</t>
+  </si>
+  <si>
+    <t>MinterEllison, and Cavell Leitch Limited</t>
+  </si>
+  <si>
+    <t>http://www.dglgroup.com</t>
+  </si>
+  <si>
+    <t>Delegat Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 359 7300</t>
+  </si>
+  <si>
+    <t>Heimsath Alexander</t>
+  </si>
+  <si>
+    <t>Murray Annabell</t>
+  </si>
+  <si>
+    <t>http://www.delegat.co.nz/</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Dividend ETF</t>
+  </si>
+  <si>
+    <t>http://www.smartshares.co.nz</t>
+  </si>
+  <si>
+    <t>Downer EDI Limited</t>
+  </si>
+  <si>
+    <t>Grant Fenn</t>
+  </si>
+  <si>
+    <t>+61 2 9468 9700</t>
+  </si>
+  <si>
+    <t>Michael Ferguson</t>
+  </si>
+  <si>
+    <t>http://www.downergroup.com/</t>
+  </si>
+  <si>
+    <t>Ebos Group Limited</t>
+  </si>
+  <si>
+    <t>John Cullity</t>
+  </si>
+  <si>
+    <t>+64 3 338 0999</t>
+  </si>
+  <si>
+    <t>Deloitte, Christchurch</t>
+  </si>
+  <si>
+    <t>Chapman Tripp, Christchurch</t>
+  </si>
+  <si>
+    <t>Leonard Hansen</t>
+  </si>
+  <si>
+    <t>http://www.ebos.co.nz/</t>
+  </si>
+  <si>
+    <t>Smartshares Emerging Markets ETF</t>
+  </si>
+  <si>
+    <t>Smartshares Emerging Markets Equities ESG ETF</t>
+  </si>
+  <si>
+    <t>Enprise Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 829 5500</t>
+  </si>
+  <si>
+    <t>RSM Hayes</t>
+  </si>
+  <si>
+    <t>Roger Wallis</t>
+  </si>
+  <si>
+    <t>http://www.enprisegroup.com</t>
+  </si>
+  <si>
+    <t>EROAD Limited</t>
+  </si>
+  <si>
+    <t>+64 09 927 4747</t>
+  </si>
+  <si>
+    <t>Alex Ball</t>
+  </si>
+  <si>
+    <t>http://www.eroad.co.nz</t>
+  </si>
+  <si>
+    <t>Smartshares Global Equities ESG ETF</t>
+  </si>
+  <si>
+    <t>Smartshares Europe ETF</t>
+  </si>
+  <si>
+    <t>http://smartshares.co.nz/</t>
+  </si>
+  <si>
+    <t>Smartshares Europe Equities ESG ETF</t>
+  </si>
+  <si>
+    <t>Evolve Education Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 377 8700</t>
+  </si>
+  <si>
+    <t>Grant Thornton New Zealand</t>
+  </si>
+  <si>
+    <t>http://www.evolveeducation.co.nz</t>
+  </si>
+  <si>
+    <t>Fletcher Building Limited</t>
+  </si>
+  <si>
+    <t>Ross Taylor</t>
+  </si>
+  <si>
+    <t>+64 9 525 9000</t>
+  </si>
+  <si>
+    <t>Bevan McKenzie</t>
+  </si>
+  <si>
+    <t>http://www.fletcherbuilding.com/</t>
+  </si>
+  <si>
+    <t>F&amp;C Investment Trust PLC</t>
+  </si>
+  <si>
+    <t>+44 20 7628 8000</t>
+  </si>
+  <si>
+    <t>Norton Rose Fulbright</t>
+  </si>
+  <si>
+    <t>http://www.foreignandcolonial.com/</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Top 50 ETF</t>
+  </si>
+  <si>
+    <t>http://www.smartshares.co.nz/</t>
+  </si>
+  <si>
+    <t>Fisher &amp; Paykel Healthcare Corporation Limited</t>
+  </si>
+  <si>
+    <t>+64 9 574 0100</t>
+  </si>
+  <si>
+    <t>Lyndal York</t>
+  </si>
+  <si>
+    <t>http://www.fphcare.co.nz/</t>
+  </si>
+  <si>
+    <t>Freightways Limited</t>
+  </si>
+  <si>
+    <t>Mark Troughear</t>
+  </si>
+  <si>
+    <t>+64 9 571 9683</t>
+  </si>
+  <si>
+    <t>Stephan Deschamps</t>
+  </si>
+  <si>
+    <t>http://www.freightways.co.nz/</t>
+  </si>
+  <si>
+    <t>Fonterra Shareholders' Fund (NS)</t>
+  </si>
+  <si>
+    <t>http://www.fonterra.com</t>
+  </si>
+  <si>
+    <t>Foley Wines Limited</t>
+  </si>
+  <si>
+    <t>Mark Turnbull</t>
+  </si>
+  <si>
+    <t>+64 3 572 8200</t>
+  </si>
+  <si>
+    <t>http://www.foleywines.co.nz/</t>
+  </si>
+  <si>
+    <t>Smartshares Global Bond ETF</t>
+  </si>
+  <si>
+    <t>General Capital Limited</t>
+  </si>
+  <si>
+    <t>+64 9 304 0145</t>
+  </si>
+  <si>
+    <t>Lowndes Associates</t>
+  </si>
+  <si>
+    <t>http://www.gencap.co.nz</t>
+  </si>
+  <si>
+    <t>Geo Limited</t>
+  </si>
+  <si>
+    <t>Tim Molloy</t>
+  </si>
+  <si>
+    <t>+64 9 366 3503</t>
+  </si>
+  <si>
+    <t>BDO New Zealand</t>
+  </si>
+  <si>
+    <t>Peter Hynd</t>
+  </si>
+  <si>
+    <t>http://www.geoop.com</t>
+  </si>
+  <si>
+    <t>Geneva Finance Limited</t>
+  </si>
+  <si>
+    <t>0800 800 133</t>
+  </si>
+  <si>
+    <t>Dermot Ross</t>
+  </si>
+  <si>
+    <t>Albert Boy</t>
+  </si>
+  <si>
+    <t>http://www.genevafinance.co.nz/</t>
+  </si>
+  <si>
+    <t>Goodman Property Trust (NS)</t>
+  </si>
+  <si>
+    <t>+64 9 375 6060</t>
+  </si>
+  <si>
+    <t>Andy Eakin</t>
+  </si>
+  <si>
+    <t>http://www.goodman.com/gmt/</t>
+  </si>
+  <si>
+    <t>Genesis Energy Limited (NS)</t>
+  </si>
+  <si>
+    <t>Marc England</t>
+  </si>
+  <si>
+    <t>+64 9 951 9294</t>
+  </si>
+  <si>
+    <t>Bell Gully</t>
+  </si>
+  <si>
+    <t>Chris Jewell</t>
+  </si>
+  <si>
+    <t>http://www.genesisenergy.co.nz/</t>
+  </si>
+  <si>
+    <t>Good Spirits Hospitality Limited</t>
+  </si>
+  <si>
+    <t>Geoff Tuttle</t>
+  </si>
+  <si>
+    <t>BDO Auckland</t>
+  </si>
+  <si>
+    <t>Harmos Horton Lusk</t>
+  </si>
+  <si>
+    <t>Anthony Laus</t>
+  </si>
+  <si>
+    <t>http://www.veritasinvestments.co.nz</t>
+  </si>
+  <si>
+    <t>Gentrack Group Limited</t>
+  </si>
+  <si>
+    <t>James Spence</t>
+  </si>
+  <si>
+    <t>http://www.gentrack.com</t>
+  </si>
+  <si>
+    <t>Goodwood Capital Limited</t>
+  </si>
+  <si>
+    <t>http://www.goodwoodcapital.co.nz/</t>
+  </si>
+  <si>
+    <t>Green Cross Health Limited</t>
+  </si>
+  <si>
+    <t>Rachael Newfield</t>
+  </si>
+  <si>
+    <t>+64 9 580 6846</t>
+  </si>
+  <si>
+    <t>Ben Doshi</t>
+  </si>
+  <si>
+    <t>http://www.greencrosshealth.co.nz</t>
+  </si>
+  <si>
+    <t>Henderson Far East Income Limited</t>
+  </si>
+  <si>
+    <t>+44 020 7818 1818</t>
+  </si>
+  <si>
+    <t>KPMG Channel Island Limited</t>
+  </si>
+  <si>
+    <t>http://www.itshenderson.com/</t>
+  </si>
+  <si>
+    <t>Heartland Group Holdings Limited</t>
+  </si>
+  <si>
+    <t>Jeff Greenslade</t>
+  </si>
+  <si>
+    <t>09 927 9136</t>
+  </si>
+  <si>
+    <t>Russell McVeagh</t>
+  </si>
+  <si>
+    <t>Andrew Dixson</t>
+  </si>
+  <si>
+    <t>http://www.heartland.co.nz</t>
+  </si>
+  <si>
+    <t>Hallenstein Glasson Holdings Limited</t>
+  </si>
+  <si>
+    <t>Stuart Duncan</t>
+  </si>
+  <si>
+    <t>+64 9 306 2500</t>
+  </si>
+  <si>
+    <t>http://www.hallensteinglasson.co.nz/</t>
+  </si>
+  <si>
+    <t>Harmoney Corp Limited</t>
+  </si>
+  <si>
+    <t>+64 800 427 666</t>
+  </si>
+  <si>
+    <t>Pricewaterhouse Coopers</t>
+  </si>
+  <si>
+    <t>Simon Ward</t>
+  </si>
+  <si>
+    <t>https://www.harmoney.co.nz/</t>
+  </si>
+  <si>
+    <t>Infratil Limited</t>
+  </si>
+  <si>
+    <t>Phillippa Harford</t>
+  </si>
+  <si>
+    <t>http://www.infratil.com/</t>
+  </si>
+  <si>
+    <t>ikeGPS Group Limited</t>
+  </si>
+  <si>
+    <t>+64 4 382 8064</t>
+  </si>
+  <si>
+    <t>Stephen Fairbrother</t>
+  </si>
+  <si>
+    <t>http://www.ikegps.com</t>
+  </si>
+  <si>
+    <t>Investore Property Limited (NS)</t>
+  </si>
+  <si>
+    <t>+64 9 912 2690</t>
+  </si>
+  <si>
+    <t>http://www.investoreproperty.co.nz</t>
+  </si>
+  <si>
+    <t>Just Life Group Limited</t>
+  </si>
+  <si>
+    <t>Tony Falkenstein</t>
+  </si>
+  <si>
+    <t>+64 09 630 1300</t>
+  </si>
+  <si>
+    <t>http://www.jwi.co.nz/</t>
+  </si>
+  <si>
+    <t>JPMorgan Global Growth &amp; Income plc</t>
+  </si>
+  <si>
+    <t>+44 20 7742 6000</t>
+  </si>
+  <si>
+    <t>Freshfields Bruckhaus Deringer</t>
+  </si>
+  <si>
+    <t>http://www.jpmfoverseas.com/</t>
+  </si>
+  <si>
+    <t>Smartshares Japan Equities ESG ETF</t>
+  </si>
+  <si>
+    <t>Kingfish Limited</t>
+  </si>
+  <si>
+    <t>+6 9 489 7094</t>
+  </si>
+  <si>
+    <t>http://www.kingfish.co.nz</t>
+  </si>
+  <si>
+    <t>Kathmandu Holdings Limited</t>
+  </si>
+  <si>
+    <t>+64 3 968 6110</t>
+  </si>
+  <si>
+    <t>Chapman Tripp, Auckland</t>
+  </si>
+  <si>
+    <t>Chris Kinraid</t>
+  </si>
+  <si>
+    <t>https://www.kathmanduholdings.com/</t>
+  </si>
+  <si>
+    <t>Kiwi Property Group Limited</t>
+  </si>
+  <si>
+    <t>Clive Mackenzie</t>
+  </si>
+  <si>
+    <t>+64 9 359 4000</t>
+  </si>
+  <si>
+    <t>Gavin Parker</t>
+  </si>
+  <si>
+    <t>http://www.kp.co.nz</t>
+  </si>
+  <si>
+    <t>Livestock Improvement Corporation Limited (NS)</t>
+  </si>
+  <si>
+    <t>Wayne McNee</t>
+  </si>
+  <si>
+    <t>+64 27 488 4615</t>
+  </si>
+  <si>
+    <t>KPMG, Hamilton</t>
+  </si>
+  <si>
+    <t>Simpson Grierson</t>
+  </si>
+  <si>
+    <t>David Hazlehurst</t>
+  </si>
+  <si>
+    <t>http://www.lic.co.nz/</t>
+  </si>
+  <si>
+    <t>Smartshares Healthcare Innovation ETF</t>
+  </si>
+  <si>
+    <t>Millennium &amp; Copthorne Hotels New Zealand Limited</t>
+  </si>
+  <si>
+    <t>+64 9 353 5010</t>
+  </si>
+  <si>
+    <t>https://mckhotels.co.nz/investors/</t>
+  </si>
+  <si>
+    <t>Mercury NZ Limited (NS)</t>
+  </si>
+  <si>
+    <t>Vince Hawksworth</t>
+  </si>
+  <si>
+    <t>+64 9 308 8200</t>
+  </si>
+  <si>
+    <t>William Meek</t>
+  </si>
+  <si>
+    <t>http://www.mercury.co.nz</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Mid Cap ETF</t>
+  </si>
+  <si>
+    <t>Me Today Limited</t>
+  </si>
+  <si>
+    <t>Michael Kerr</t>
+  </si>
+  <si>
+    <t>+64 21 330 053</t>
+  </si>
+  <si>
+    <t>BDO, Auckland</t>
+  </si>
+  <si>
+    <t>Stephen Sinclair</t>
+  </si>
+  <si>
+    <t>http://www.metoday.com</t>
+  </si>
+  <si>
+    <t>Meridian Energy Limited (NS)</t>
+  </si>
+  <si>
+    <t>Neal Barclay</t>
+  </si>
+  <si>
+    <t>+64 4 381 1200</t>
+  </si>
+  <si>
+    <t>Russell McVeagh, Wellington</t>
+  </si>
+  <si>
+    <t>Michael Roan</t>
+  </si>
+  <si>
+    <t>http://www.meridianenergy.co.nz/</t>
+  </si>
+  <si>
+    <t>My Food Bag Group Limited</t>
+  </si>
+  <si>
+    <t>Kevin Bowler</t>
+  </si>
+  <si>
+    <t>+64 9 886 9840</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>Mark Winter</t>
+  </si>
+  <si>
+    <t>https://investors.myfoodbag.co.nz/</t>
+  </si>
+  <si>
+    <t>Mainfreight Limited</t>
+  </si>
+  <si>
+    <t>+64 9 259 5500</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young, Auckland</t>
+  </si>
+  <si>
+    <t>Howard-Smith &amp; Co</t>
+  </si>
+  <si>
+    <t>http://www.mainfreight.com/</t>
+  </si>
+  <si>
+    <t>Michael Hill International Limited</t>
+  </si>
+  <si>
+    <t>+61 7 3114 3505</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young - Brisbane</t>
+  </si>
+  <si>
+    <t>Allens, Brisbane</t>
+  </si>
+  <si>
+    <t>http://investor.michaelhill.com</t>
+  </si>
+  <si>
+    <t>MHM Automation Limited</t>
+  </si>
+  <si>
+    <t>Richard Rookes</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>Buddle Findlay</t>
+  </si>
+  <si>
+    <t>Ian McGregor</t>
+  </si>
+  <si>
+    <t>http://www.mercers.co.nz/</t>
+  </si>
+  <si>
+    <t>Marlin Global Limited</t>
+  </si>
+  <si>
+    <t>+64 9 445 3377</t>
+  </si>
+  <si>
+    <t>http://www.marlin.co.nz/</t>
+  </si>
+  <si>
+    <t>Marsden Maritime Holdings Limited</t>
+  </si>
+  <si>
+    <t>Felix Richter</t>
+  </si>
+  <si>
+    <t>http://www.marsdenmaritime.co.nz</t>
+  </si>
+  <si>
+    <t>Move Logistics Group Limited</t>
+  </si>
+  <si>
+    <t>+06 755 9990</t>
+  </si>
+  <si>
+    <t>Lee Banks</t>
+  </si>
+  <si>
+    <t>http://www.til.kiwi</t>
+  </si>
+  <si>
+    <t>Metro Performance Glass Limited</t>
+  </si>
+  <si>
+    <t>Simon Mander</t>
+  </si>
+  <si>
+    <t>+64 9 927 3000</t>
+  </si>
+  <si>
+    <t>Brent Mealings</t>
+  </si>
+  <si>
+    <t>http://www.metroglass.co.nz</t>
+  </si>
+  <si>
+    <t>Marlborough Wine Estates Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 2156650</t>
+  </si>
+  <si>
+    <t>http://www.nzmwe.com</t>
+  </si>
+  <si>
+    <t>Smartshares Australian Mid Cap ETF</t>
+  </si>
+  <si>
+    <t>Smartshares S&amp;P/NZX NZ Government Bond ETF</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Property ETF</t>
+  </si>
+  <si>
+    <t>Napier Port Holdings Limited</t>
+  </si>
+  <si>
+    <t>Todd Dawson</t>
+  </si>
+  <si>
+    <t>+64 6 833 4400</t>
+  </si>
+  <si>
+    <t>Kristen Lie</t>
+  </si>
+  <si>
+    <t>http://www.napierport.co.nz</t>
+  </si>
+  <si>
+    <t>New Talisman Gold Mines Limited</t>
+  </si>
+  <si>
+    <t>+64 9 303 1893</t>
+  </si>
+  <si>
+    <t>KS Black &amp; Co</t>
+  </si>
+  <si>
+    <t>http://www.newtalismangoldmines.co.nz/</t>
+  </si>
+  <si>
+    <t>NZ Windfarms Limited</t>
+  </si>
+  <si>
+    <t>Warren Koia</t>
+  </si>
+  <si>
+    <t>+06 280 2773</t>
+  </si>
+  <si>
+    <t>Wynn Williams, Auckland</t>
+  </si>
+  <si>
+    <t>http://www.nzwindfarms.co.nz/</t>
+  </si>
+  <si>
+    <t>NZ Automotive Investments Limited</t>
+  </si>
+  <si>
+    <t>David Page</t>
+  </si>
+  <si>
+    <t>+64 9 666 0158</t>
+  </si>
+  <si>
+    <t>Lowndes Jordan</t>
+  </si>
+  <si>
+    <t>http://www.nzautomotiveinvestments.co.nz</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Bond ETF</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Cash ETF</t>
+  </si>
+  <si>
+    <t>Smartshares S&amp;P/NZX 50 ETF</t>
+  </si>
+  <si>
+    <t>New Zealand King Salmon Investments Limited</t>
+  </si>
+  <si>
+    <t>+64 3 548 5714</t>
+  </si>
+  <si>
+    <t>http://www.kingsalmon.co.nz</t>
+  </si>
+  <si>
+    <t>New Zealand Rural Land Company Limited (NS)</t>
+  </si>
+  <si>
+    <t>+64 4 471 9428</t>
+  </si>
+  <si>
+    <t>http://www.nzrlc.co.nz</t>
+  </si>
+  <si>
+    <t>NZME Limited</t>
+  </si>
+  <si>
+    <t>Michael Boggs</t>
+  </si>
+  <si>
+    <t>+64 027 479 0697</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>David Mackrell</t>
+  </si>
+  <si>
+    <t>http://www.nzme.co.nz</t>
+  </si>
+  <si>
+    <t>New Zealand Oil &amp; Gas Limited</t>
+  </si>
+  <si>
+    <t>Catherine McKelvey</t>
+  </si>
+  <si>
+    <t>http://www.nzog.com/</t>
+  </si>
+  <si>
+    <t>The New Zealand Refining Company Limited</t>
+  </si>
+  <si>
+    <t>Naomi James</t>
+  </si>
+  <si>
+    <t>+64 9 432 8311</t>
+  </si>
+  <si>
+    <t>Minter Ellison Rudd Watts, Auckland</t>
+  </si>
+  <si>
+    <t>Denise Jensen</t>
+  </si>
+  <si>
+    <t>http://www.refiningnz.com/</t>
+  </si>
+  <si>
+    <t>NZX Limited</t>
+  </si>
+  <si>
+    <t>Mark Peterson</t>
+  </si>
+  <si>
+    <t>+64 4 472 7599</t>
+  </si>
+  <si>
+    <t>Graham Law</t>
+  </si>
+  <si>
+    <t>https://www.nzx.com/about-nzx/organization-structure</t>
+  </si>
+  <si>
+    <t>Oceania Healthcare Limited</t>
+  </si>
+  <si>
+    <t>Brent Pattison</t>
+  </si>
+  <si>
+    <t>+64 9 213 1022</t>
+  </si>
+  <si>
+    <t>Webb Henderson</t>
+  </si>
+  <si>
+    <t>Kathryn Waugh</t>
+  </si>
+  <si>
+    <t>http://www.oceaniahealthcare.co.nz</t>
+  </si>
+  <si>
+    <t>Smartshares Australian Top 20 ETF</t>
+  </si>
+  <si>
+    <t>Precinct Properties New Zealand Limited (NS)</t>
+  </si>
+  <si>
+    <t>Scott Pritchard</t>
+  </si>
+  <si>
+    <t>+64 9 222 0070</t>
+  </si>
+  <si>
+    <t>Richard Hilder</t>
+  </si>
+  <si>
+    <t>http://www.precinct.co.nz</t>
+  </si>
+  <si>
+    <t>Pacific Edge Limited</t>
+  </si>
+  <si>
+    <t>+64 3 479 5800</t>
+  </si>
+  <si>
+    <t>PricewaterhouseCoopers, Dunedin</t>
+  </si>
+  <si>
+    <t>Grant Gibson</t>
+  </si>
+  <si>
+    <t>http://www.pacificedgedx.com</t>
+  </si>
+  <si>
+    <t>Property for Industry Limited</t>
+  </si>
+  <si>
+    <t>Simon Woodhams</t>
+  </si>
+  <si>
+    <t>+64 9 303 9450</t>
+  </si>
+  <si>
+    <t>http://www.pfi.co.nz/</t>
+  </si>
+  <si>
+    <t>PGG Wrightson Limited</t>
+  </si>
+  <si>
+    <t>Stephen Guerin</t>
+  </si>
+  <si>
+    <t>+64 3 372 0800</t>
+  </si>
+  <si>
+    <t>Peter Scott</t>
+  </si>
+  <si>
+    <t>http://www.pggwrightson.co.nz/</t>
+  </si>
+  <si>
+    <t>Promisia Healthcare Limited</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>+64 027 499 3387</t>
+  </si>
+  <si>
+    <t>William Buck Audit (NZ) Limited</t>
+  </si>
+  <si>
+    <t>https://www.promisia.co.nz/</t>
+  </si>
+  <si>
+    <t>Private Land and Property Fund</t>
+  </si>
+  <si>
+    <t>+64 4 894 4300</t>
+  </si>
+  <si>
+    <t>http://www.booster.co.nz/plpf</t>
+  </si>
+  <si>
+    <t>Port of Tauranga Limited</t>
+  </si>
+  <si>
+    <t>Leonard Sampson</t>
+  </si>
+  <si>
+    <t>+64 7 572 8899</t>
+  </si>
+  <si>
+    <t>Holland Beckett Law</t>
+  </si>
+  <si>
+    <t>Simon Kebbell</t>
+  </si>
+  <si>
+    <t>http://www.port-tauranga.co.nz/</t>
+  </si>
+  <si>
+    <t>Pushpay Holdings Limited</t>
+  </si>
+  <si>
+    <t>Molly Matthews</t>
+  </si>
+  <si>
+    <t>+64 21 724 244</t>
+  </si>
+  <si>
+    <t>Shane Sampson</t>
+  </si>
+  <si>
+    <t>http://www.pushpay.com</t>
+  </si>
+  <si>
+    <t>Plexure Group Limited</t>
+  </si>
+  <si>
+    <t>+64 21 288 3355</t>
+  </si>
+  <si>
+    <t>http://www.plexure.com</t>
+  </si>
+  <si>
+    <t>PaySauce Limited</t>
+  </si>
+  <si>
+    <t>021 554 600</t>
+  </si>
+  <si>
+    <t>Jaime Monaghan</t>
+  </si>
+  <si>
+    <t>https://www.paysauce.com/</t>
+  </si>
+  <si>
+    <t>QEX Logistics Limited</t>
+  </si>
+  <si>
+    <t>Jingjie (Ronnie) Xue</t>
+  </si>
+  <si>
+    <t>+64 09 838 8681</t>
+  </si>
+  <si>
+    <t>http://www.qex.co.nz</t>
+  </si>
+  <si>
+    <t>Radius Residential Care Limited</t>
+  </si>
+  <si>
+    <t>+64 9 883 1444</t>
+  </si>
+  <si>
+    <t>Baker Tilly Staples Rodway</t>
+  </si>
+  <si>
+    <t>https://radiuscare.co.nz/</t>
+  </si>
+  <si>
+    <t>Rakon Limited</t>
+  </si>
+  <si>
+    <t>+64 9 571 9238</t>
+  </si>
+  <si>
+    <t>Anand Rambhai</t>
+  </si>
+  <si>
+    <t>http://www.rakon.com</t>
+  </si>
+  <si>
+    <t>Restaurant Brands New Zealand Limited</t>
+  </si>
+  <si>
+    <t>Russel Creedy</t>
+  </si>
+  <si>
+    <t>Grant Ellis</t>
+  </si>
+  <si>
+    <t>http://www.restaurantbrands.co.nz/</t>
+  </si>
+  <si>
+    <t>Rua Bioscience Limited</t>
+  </si>
+  <si>
+    <t>Rob Mitchell</t>
+  </si>
+  <si>
+    <t>+64 21 128 7689</t>
+  </si>
+  <si>
+    <t>Hamish White</t>
+  </si>
+  <si>
+    <t>http://www.ruabio.com</t>
+  </si>
+  <si>
+    <t>Ryman Healthcare Limited</t>
+  </si>
+  <si>
+    <t>Gordon MacLeod</t>
+  </si>
+  <si>
+    <t>+64 3 366 4069</t>
+  </si>
+  <si>
+    <t>http://www.rymanhealthcare.co.nz/</t>
+  </si>
+  <si>
+    <t>Sanford Limited (NS)</t>
+  </si>
+  <si>
+    <t>Peter Reidie</t>
+  </si>
+  <si>
+    <t>+64 9 379 4720</t>
+  </si>
+  <si>
+    <t>Katherine Turner</t>
+  </si>
+  <si>
+    <t>http://www.sanford.co.nz/</t>
+  </si>
+  <si>
+    <t>Scales Corporation Limited</t>
+  </si>
+  <si>
+    <t>+64 3 379 7720</t>
+  </si>
+  <si>
+    <t>Steve Kennelly</t>
+  </si>
+  <si>
+    <t>http://www.scalescorporation.co.nz</t>
+  </si>
+  <si>
+    <t>Scott Technology Limited</t>
+  </si>
+  <si>
+    <t>+64 3 478 8110</t>
+  </si>
+  <si>
+    <t>Gallaway Cook Allan</t>
+  </si>
+  <si>
+    <t>Cameron Mathewson</t>
+  </si>
+  <si>
+    <t>http://www.scott.co.nz/</t>
+  </si>
+  <si>
+    <t>Smiths City Group Limited (in receivership)</t>
+  </si>
+  <si>
+    <t>Roy Campbell</t>
+  </si>
+  <si>
+    <t>+64 3 21989 676</t>
+  </si>
+  <si>
+    <t>Michael Hindmarsh</t>
+  </si>
+  <si>
+    <t>http://www.smithscitygroup.co.nz/</t>
+  </si>
+  <si>
+    <t>Solution Dynamics Limited</t>
+  </si>
+  <si>
+    <t>Stephen Layburn</t>
+  </si>
+  <si>
+    <t>http://www.solutiondynamics.com/</t>
+  </si>
+  <si>
+    <t>Seeka Limited</t>
+  </si>
+  <si>
+    <t>Michael Franks</t>
+  </si>
+  <si>
+    <t>+64 7 573 6127</t>
+  </si>
+  <si>
+    <t>Stuart McKinstry</t>
+  </si>
+  <si>
+    <t>http://www.seeka.co.nz/</t>
+  </si>
+  <si>
+    <t>SkyCity Entertainment Group Limited (NS)</t>
+  </si>
+  <si>
+    <t>Michael Ahearne</t>
+  </si>
+  <si>
+    <t>+64 9 363 6143</t>
+  </si>
+  <si>
+    <t>PwC</t>
+  </si>
+  <si>
+    <t>Julie Amey</t>
+  </si>
+  <si>
+    <t>http://www.skycity.co.nz/</t>
+  </si>
+  <si>
+    <t>Skellerup Holdings Limited</t>
+  </si>
+  <si>
+    <t>http://www.skellerupholdings.co.nz/</t>
+  </si>
+  <si>
+    <t>Serko Limited</t>
+  </si>
+  <si>
+    <t>http://www.serko.com</t>
+  </si>
+  <si>
+    <t>Sky Network Television Limited</t>
+  </si>
+  <si>
+    <t>Sophie Moloney</t>
+  </si>
+  <si>
+    <t>+64 21 630 635</t>
+  </si>
+  <si>
+    <t>Buddle Findlay, Auckland</t>
+  </si>
+  <si>
+    <t>http://www.skytv.co.nz/</t>
+  </si>
+  <si>
+    <t>Synlait Milk Limited (NS)</t>
+  </si>
+  <si>
+    <t>Minter Ellison Rudd Watts</t>
+  </si>
+  <si>
+    <t>Rob Stowell</t>
+  </si>
+  <si>
+    <t>http://www.synlait.com</t>
+  </si>
+  <si>
+    <t>SMW Group Limited</t>
+  </si>
+  <si>
+    <t>https://www.smwgroup.com.au/</t>
+  </si>
+  <si>
+    <t>Southern Charter Financial Group Limited</t>
+  </si>
+  <si>
+    <t>+64 9 522 3334</t>
+  </si>
+  <si>
+    <t>http://www.snc.co.nz</t>
+  </si>
+  <si>
+    <t>Stride Property Ltd &amp; Stride Investment Management Ltd (NS)</t>
+  </si>
+  <si>
+    <t>Philip Littlewood</t>
+  </si>
+  <si>
+    <t>http://www.strideproperty.co.nz</t>
+  </si>
+  <si>
+    <t>Spark New Zealand Limited</t>
+  </si>
+  <si>
+    <t>+64 4 471 1638</t>
+  </si>
+  <si>
+    <t>Stefan Knight</t>
+  </si>
+  <si>
+    <t>http://www.sparknz.co.nz</t>
+  </si>
+  <si>
+    <t>South Port New Zealand Limited</t>
+  </si>
+  <si>
+    <t>Nigel Gear</t>
+  </si>
+  <si>
+    <t>+64 3 212 8159</t>
+  </si>
+  <si>
+    <t>Crowe Horwath</t>
+  </si>
+  <si>
+    <t>Preston Russell Law</t>
+  </si>
+  <si>
+    <t>http://www.southport.co.nz/</t>
+  </si>
+  <si>
+    <t>Smartpay Holdings Limited</t>
+  </si>
+  <si>
+    <t>+64 9 442 2700</t>
+  </si>
+  <si>
+    <t>Claymore Law</t>
+  </si>
+  <si>
+    <t>Mark Fortugno</t>
+  </si>
+  <si>
+    <t>http://www.smartpay.co.nz/</t>
+  </si>
+  <si>
+    <t>Steel &amp; Tube Holdings Limited</t>
+  </si>
+  <si>
+    <t>Mark Malpass</t>
+  </si>
+  <si>
+    <t>+64 4 570 5000</t>
+  </si>
+  <si>
+    <t>PricewaterhouseCoopers, Wellington</t>
+  </si>
+  <si>
+    <t>Chapman Tripp Auckland</t>
+  </si>
+  <si>
+    <t>http://www.steelandtube.co.nz/</t>
+  </si>
+  <si>
+    <t>Summerset Group Holdings Limited</t>
+  </si>
+  <si>
+    <t>Scott Scoullar</t>
+  </si>
+  <si>
+    <t>+64 4 894 7320</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young, Wellington</t>
+  </si>
+  <si>
+    <t>William Wright</t>
+  </si>
+  <si>
+    <t>http://www.summerset.co.nz</t>
+  </si>
+  <si>
+    <t>Savor Limited</t>
+  </si>
+  <si>
+    <t>+64 21 049 7442</t>
+  </si>
+  <si>
+    <t>Tim Peat</t>
+  </si>
+  <si>
+    <t>http://www.savorgroup.co.nz/</t>
+  </si>
+  <si>
+    <t>Third Age Health Services Limited</t>
+  </si>
+  <si>
+    <t>Michael Haskell</t>
+  </si>
+  <si>
+    <t>+64 6 844 0011</t>
+  </si>
+  <si>
+    <t>Anthony Harper</t>
+  </si>
+  <si>
+    <t>http://www.thirdagehealth.co.nz/</t>
+  </si>
+  <si>
+    <t>The City of London Investment Trust Plc</t>
+  </si>
+  <si>
+    <t>+44 207818 1818</t>
+  </si>
+  <si>
+    <t>Stephenson Harwood LLP</t>
+  </si>
+  <si>
+    <t>http://www.cityinvestmenttrust.com/</t>
+  </si>
+  <si>
+    <t>Templeton Emerging Markets Investment Trust Plc</t>
+  </si>
+  <si>
+    <t>+44 131 242 4000</t>
+  </si>
+  <si>
+    <t>http://www.temit.co.uk/</t>
+  </si>
+  <si>
+    <t>T&amp;G Global Limited</t>
+  </si>
+  <si>
+    <t>Gareth Edgecombe</t>
+  </si>
+  <si>
+    <t>+64 9 580 9360</t>
+  </si>
+  <si>
+    <t>Douglas James Bygrave</t>
+  </si>
+  <si>
+    <t>http://www.tandg.global</t>
+  </si>
+  <si>
+    <t>Tourism Holdings Limited</t>
+  </si>
+  <si>
+    <t>Grant Webster</t>
+  </si>
+  <si>
+    <t>+64 9 336 4255</t>
+  </si>
+  <si>
+    <t>Nick Judd</t>
+  </si>
+  <si>
+    <t>http://www.thlonline.com/</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Top 10 ETF</t>
+  </si>
+  <si>
+    <t>Trustpower Limited</t>
+  </si>
+  <si>
+    <t>+64 21 471779</t>
+  </si>
+  <si>
+    <t>http://www.trustpower.co.nz</t>
+  </si>
+  <si>
+    <t>Turners Automotive Group Limited</t>
+  </si>
+  <si>
+    <t>Todd Hunter</t>
+  </si>
+  <si>
+    <t>0800 100 601</t>
+  </si>
+  <si>
+    <t>Aaron Saunders</t>
+  </si>
+  <si>
+    <t>http://www.turnerslimited.co.nz</t>
+  </si>
+  <si>
+    <t>TruScreen Group Limited</t>
+  </si>
+  <si>
+    <t>+61 2 9091 7475</t>
+  </si>
+  <si>
+    <t>RSM Hayes Audit Auckland</t>
+  </si>
+  <si>
+    <t>Jeremy Carr of Burton Partners</t>
+  </si>
+  <si>
+    <t>http://www.truscreen.com</t>
+  </si>
+  <si>
+    <t>Smartshares Total World ETF</t>
+  </si>
+  <si>
+    <t>Smartshares Total World (NZD Hedged) ETF</t>
+  </si>
+  <si>
+    <t>Tower Limited</t>
+  </si>
+  <si>
+    <t>Blair Turnbull</t>
+  </si>
+  <si>
+    <t>+64 27 257 6100</t>
+  </si>
+  <si>
+    <t>Jeff Wright</t>
+  </si>
+  <si>
+    <t>http://www.tower.co.nz</t>
+  </si>
+  <si>
+    <t>Smartshares US Equities ESG ETF</t>
+  </si>
+  <si>
+    <t>Smartshares US 500 ETF</t>
+  </si>
+  <si>
+    <t>Smartshares US Large Growth ETF</t>
+  </si>
+  <si>
+    <t>Smartshares US Mid Cap ETF</t>
+  </si>
+  <si>
+    <t>Smartshares US Small Cap ETF</t>
+  </si>
+  <si>
+    <t>Smartshares US Large Value ETF</t>
+  </si>
+  <si>
+    <t>Vector Limited (NS)</t>
+  </si>
+  <si>
+    <t>Simon Mackenzie</t>
+  </si>
+  <si>
+    <t>+64 9 978 7788</t>
+  </si>
+  <si>
+    <t>Jason Hollingworth</t>
+  </si>
+  <si>
+    <t>http://www.vector.co.nz/</t>
+  </si>
+  <si>
+    <t>Vista Group International Limited</t>
+  </si>
+  <si>
+    <t>Kimbal Riley</t>
+  </si>
+  <si>
+    <t>+64 9 984 4570</t>
+  </si>
+  <si>
+    <t>Matthew Cawte</t>
+  </si>
+  <si>
+    <t>http://www.vistagroup.co.nz</t>
+  </si>
+  <si>
+    <t>Vital Healthcare Property Trust</t>
+  </si>
+  <si>
+    <t>+64 09 973 7301</t>
+  </si>
+  <si>
+    <t>Michael Groth</t>
+  </si>
+  <si>
+    <t>http://www.vitalhealthcareproperty.co.nz/</t>
+  </si>
+  <si>
+    <t>Vital Limited</t>
+  </si>
+  <si>
+    <t>Andrew Miller</t>
+  </si>
+  <si>
+    <t>+64 4 802 1470</t>
+  </si>
+  <si>
+    <t>Crengle, Shreves &amp; Ratner</t>
+  </si>
+  <si>
+    <t>https://vital.co.nz/</t>
+  </si>
+  <si>
+    <t>Westpac Banking Corporation</t>
+  </si>
+  <si>
+    <t>Peter King</t>
+  </si>
+  <si>
+    <t>+61 2 9155 7713</t>
+  </si>
+  <si>
+    <t>PricewaterhouseCoopers, Sydney</t>
+  </si>
+  <si>
+    <t>http://www.westpac.com.au/</t>
+  </si>
+  <si>
+    <t>Wellington Drive Technologies Limited</t>
+  </si>
+  <si>
+    <t>Greg Balla</t>
+  </si>
+  <si>
+    <t>+64 27 587 0455</t>
+  </si>
+  <si>
+    <t>http://www.wdtl.com/</t>
+  </si>
+  <si>
+    <t>The Warehouse Group Limited</t>
+  </si>
+  <si>
+    <t>Nick Grayston</t>
+  </si>
+  <si>
+    <t>Jonathan Oram</t>
+  </si>
+  <si>
+    <t>http://www.thewarehouse.co.nz/</t>
+  </si>
+  <si>
+    <t>Z Energy Limited</t>
+  </si>
+  <si>
+    <t>Mike Bennetts</t>
+  </si>
+  <si>
+    <t>Lindis Jones</t>
+  </si>
+  <si>
+    <t>http://z.co.nz</t>
   </si>
 </sst>
 </file>
@@ -243,8 +2142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +2459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C32C02-EE8B-4275-93CF-66F891E3C800}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,22 +2531,22 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -654,44 +2554,44 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -700,73 +2600,73 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -774,22 +2674,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -797,25 +2697,4050 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>61386547597</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6493006161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>6493569800</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <v>6493043400</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>6499729802</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-2E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>6421702509</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>6493749000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" t="s">
+        <v>244</v>
+      </c>
+      <c r="F67" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" t="s">
+        <v>255</v>
+      </c>
+      <c r="G69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>257</v>
+      </c>
+      <c r="B70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70">
+        <v>6493079119</v>
+      </c>
+      <c r="D70" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" t="s">
+        <v>260</v>
+      </c>
+      <c r="F70" t="s">
+        <v>261</v>
+      </c>
+      <c r="G70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>220965576</v>
+      </c>
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" t="s">
+        <v>264</v>
+      </c>
+      <c r="G71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" t="s">
+        <v>271</v>
+      </c>
+      <c r="G73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" t="s">
+        <v>281</v>
+      </c>
+      <c r="G75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" t="s">
+        <v>290</v>
+      </c>
+      <c r="G77" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>292</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>6444733663</v>
+      </c>
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>293</v>
+      </c>
+      <c r="G78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>295</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s">
+        <v>297</v>
+      </c>
+      <c r="G79" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" t="s">
+        <v>316</v>
+      </c>
+      <c r="F85" t="s">
+        <v>317</v>
+      </c>
+      <c r="G85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" t="s">
+        <v>320</v>
+      </c>
+      <c r="C86" t="s">
+        <v>321</v>
+      </c>
+      <c r="D86" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" t="s">
+        <v>322</v>
+      </c>
+      <c r="G86" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" t="s">
+        <v>328</v>
+      </c>
+      <c r="F87" t="s">
+        <v>329</v>
+      </c>
+      <c r="G87" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>333</v>
+      </c>
+      <c r="D90" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" t="s">
+        <v>337</v>
+      </c>
+      <c r="D91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" t="s">
+        <v>338</v>
+      </c>
+      <c r="G91" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>340</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B93" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" t="s">
+        <v>344</v>
+      </c>
+      <c r="E93" t="s">
+        <v>76</v>
+      </c>
+      <c r="F93" t="s">
+        <v>345</v>
+      </c>
+      <c r="G93" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>349</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>350</v>
+      </c>
+      <c r="F94" t="s">
+        <v>351</v>
+      </c>
+      <c r="G94" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>353</v>
+      </c>
+      <c r="B95" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95" t="s">
+        <v>356</v>
+      </c>
+      <c r="E95" t="s">
+        <v>76</v>
+      </c>
+      <c r="F95" t="s">
+        <v>357</v>
+      </c>
+      <c r="G95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>360</v>
+      </c>
+      <c r="D96" t="s">
+        <v>361</v>
+      </c>
+      <c r="E96" t="s">
+        <v>362</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>364</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" t="s">
+        <v>366</v>
+      </c>
+      <c r="E97" t="s">
+        <v>367</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>369</v>
+      </c>
+      <c r="B98" t="s">
+        <v>370</v>
+      </c>
+      <c r="C98">
+        <v>6498377540</v>
+      </c>
+      <c r="D98" t="s">
+        <v>371</v>
+      </c>
+      <c r="E98" t="s">
+        <v>372</v>
+      </c>
+      <c r="F98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G98" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>376</v>
+      </c>
+      <c r="D100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>378</v>
+      </c>
+      <c r="B101" t="s">
+        <v>379</v>
+      </c>
+      <c r="C101">
+        <v>6494325033</v>
+      </c>
+      <c r="D101" t="s">
+        <v>361</v>
+      </c>
+      <c r="E101" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>381</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>382</v>
+      </c>
+      <c r="D102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" t="s">
+        <v>383</v>
+      </c>
+      <c r="G102" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>385</v>
+      </c>
+      <c r="B103" t="s">
+        <v>386</v>
+      </c>
+      <c r="C103" t="s">
+        <v>387</v>
+      </c>
+      <c r="D103" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" t="s">
+        <v>254</v>
+      </c>
+      <c r="F103" t="s">
+        <v>388</v>
+      </c>
+      <c r="G103" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>390</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" t="s">
+        <v>259</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>393</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>394</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>395</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" t="s">
+        <v>397</v>
+      </c>
+      <c r="C108" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" t="s">
+        <v>254</v>
+      </c>
+      <c r="F108" t="s">
+        <v>399</v>
+      </c>
+      <c r="G108" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>401</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>402</v>
+      </c>
+      <c r="D109" t="s">
+        <v>403</v>
+      </c>
+      <c r="E109" t="s">
+        <v>316</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>402</v>
+      </c>
+      <c r="D110" t="s">
+        <v>403</v>
+      </c>
+      <c r="E110" t="s">
+        <v>316</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>405</v>
+      </c>
+      <c r="B111" t="s">
+        <v>406</v>
+      </c>
+      <c r="C111" t="s">
+        <v>407</v>
+      </c>
+      <c r="D111" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" t="s">
+        <v>408</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>410</v>
+      </c>
+      <c r="B112" t="s">
+        <v>411</v>
+      </c>
+      <c r="C112" t="s">
+        <v>412</v>
+      </c>
+      <c r="D112" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" t="s">
+        <v>413</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>415</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>416</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>61</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>417</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>418</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>419</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" t="s">
+        <v>76</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>421</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>422</v>
+      </c>
+      <c r="D117" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>424</v>
+      </c>
+      <c r="B118" t="s">
+        <v>425</v>
+      </c>
+      <c r="C118" t="s">
+        <v>426</v>
+      </c>
+      <c r="D118" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" t="s">
+        <v>427</v>
+      </c>
+      <c r="F118" t="s">
+        <v>428</v>
+      </c>
+      <c r="G118" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>430</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>6444952424</v>
+      </c>
+      <c r="D119" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" t="s">
+        <v>427</v>
+      </c>
+      <c r="F119" t="s">
+        <v>431</v>
+      </c>
+      <c r="G119" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>433</v>
+      </c>
+      <c r="B120" t="s">
+        <v>434</v>
+      </c>
+      <c r="C120" t="s">
+        <v>435</v>
+      </c>
+      <c r="D120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" t="s">
+        <v>436</v>
+      </c>
+      <c r="F120" t="s">
+        <v>437</v>
+      </c>
+      <c r="G120" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>439</v>
+      </c>
+      <c r="B121" t="s">
+        <v>440</v>
+      </c>
+      <c r="C121" t="s">
+        <v>441</v>
+      </c>
+      <c r="D121" t="s">
+        <v>59</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>442</v>
+      </c>
+      <c r="G121" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>444</v>
+      </c>
+      <c r="B122" t="s">
+        <v>445</v>
+      </c>
+      <c r="C122" t="s">
+        <v>446</v>
+      </c>
+      <c r="D122" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" t="s">
+        <v>448</v>
+      </c>
+      <c r="G122" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>450</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>451</v>
+      </c>
+      <c r="B124" t="s">
+        <v>452</v>
+      </c>
+      <c r="C124" t="s">
+        <v>453</v>
+      </c>
+      <c r="D124" t="s">
+        <v>361</v>
+      </c>
+      <c r="E124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" t="s">
+        <v>454</v>
+      </c>
+      <c r="G124" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>451</v>
+      </c>
+      <c r="B125" t="s">
+        <v>452</v>
+      </c>
+      <c r="C125" t="s">
+        <v>453</v>
+      </c>
+      <c r="D125" t="s">
+        <v>361</v>
+      </c>
+      <c r="E125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" t="s">
+        <v>454</v>
+      </c>
+      <c r="G125" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>456</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>457</v>
+      </c>
+      <c r="D126" t="s">
+        <v>458</v>
+      </c>
+      <c r="E126" t="s">
+        <v>105</v>
+      </c>
+      <c r="F126" t="s">
+        <v>459</v>
+      </c>
+      <c r="G126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>461</v>
+      </c>
+      <c r="B127" t="s">
+        <v>462</v>
+      </c>
+      <c r="C127" t="s">
+        <v>463</v>
+      </c>
+      <c r="D127" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" t="s">
+        <v>316</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>465</v>
+      </c>
+      <c r="B128" t="s">
+        <v>466</v>
+      </c>
+      <c r="C128" t="s">
+        <v>467</v>
+      </c>
+      <c r="D128" t="s">
+        <v>356</v>
+      </c>
+      <c r="E128" t="s">
+        <v>76</v>
+      </c>
+      <c r="F128" t="s">
+        <v>468</v>
+      </c>
+      <c r="G128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>470</v>
+      </c>
+      <c r="B129" t="s">
+        <v>471</v>
+      </c>
+      <c r="C129" t="s">
+        <v>472</v>
+      </c>
+      <c r="D129" t="s">
+        <v>473</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>475</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>476</v>
+      </c>
+      <c r="D130" t="s">
+        <v>56</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>478</v>
+      </c>
+      <c r="B131" t="s">
+        <v>479</v>
+      </c>
+      <c r="C131" t="s">
+        <v>480</v>
+      </c>
+      <c r="D131" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" t="s">
+        <v>481</v>
+      </c>
+      <c r="F131" t="s">
+        <v>482</v>
+      </c>
+      <c r="G131" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>484</v>
+      </c>
+      <c r="B132" t="s">
+        <v>485</v>
+      </c>
+      <c r="C132" t="s">
+        <v>486</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
+        <v>487</v>
+      </c>
+      <c r="G132" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>489</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>490</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>492</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>493</v>
+      </c>
+      <c r="D134" t="s">
+        <v>153</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>494</v>
+      </c>
+      <c r="G134" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>496</v>
+      </c>
+      <c r="B135" t="s">
+        <v>497</v>
+      </c>
+      <c r="C135" t="s">
+        <v>498</v>
+      </c>
+      <c r="D135" t="s">
+        <v>427</v>
+      </c>
+      <c r="E135" t="s">
+        <v>427</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>500</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>501</v>
+      </c>
+      <c r="D136" t="s">
+        <v>502</v>
+      </c>
+      <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>504</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>505</v>
+      </c>
+      <c r="D137" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" t="s">
+        <v>506</v>
+      </c>
+      <c r="G137" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>508</v>
+      </c>
+      <c r="B138" t="s">
+        <v>509</v>
+      </c>
+      <c r="C138">
+        <v>6495258700</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s">
+        <v>510</v>
+      </c>
+      <c r="G138" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>512</v>
+      </c>
+      <c r="B139" t="s">
+        <v>513</v>
+      </c>
+      <c r="C139" t="s">
+        <v>514</v>
+      </c>
+      <c r="D139" t="s">
+        <v>289</v>
+      </c>
+      <c r="E139" t="s">
+        <v>413</v>
+      </c>
+      <c r="F139" t="s">
+        <v>515</v>
+      </c>
+      <c r="G139" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>517</v>
+      </c>
+      <c r="B140" t="s">
+        <v>518</v>
+      </c>
+      <c r="C140" t="s">
+        <v>519</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>183</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>521</v>
+      </c>
+      <c r="B141" t="s">
+        <v>522</v>
+      </c>
+      <c r="C141" t="s">
+        <v>523</v>
+      </c>
+      <c r="D141" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" t="s">
+        <v>316</v>
+      </c>
+      <c r="F141" t="s">
+        <v>524</v>
+      </c>
+      <c r="G141" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>526</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>527</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" t="s">
+        <v>76</v>
+      </c>
+      <c r="F142" t="s">
+        <v>528</v>
+      </c>
+      <c r="G142" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>530</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>531</v>
+      </c>
+      <c r="D143" t="s">
+        <v>104</v>
+      </c>
+      <c r="E143" t="s">
+        <v>532</v>
+      </c>
+      <c r="F143" t="s">
+        <v>533</v>
+      </c>
+      <c r="G143" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>535</v>
+      </c>
+      <c r="B144" t="s">
+        <v>536</v>
+      </c>
+      <c r="C144" t="s">
+        <v>537</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>538</v>
+      </c>
+      <c r="G144" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>540</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>6499707700</v>
+      </c>
+      <c r="D145" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145" t="s">
+        <v>541</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>543</v>
+      </c>
+      <c r="B146" t="s">
+        <v>544</v>
+      </c>
+      <c r="C146" t="s">
+        <v>545</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>71</v>
+      </c>
+      <c r="F146" t="s">
+        <v>546</v>
+      </c>
+      <c r="G146" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>548</v>
+      </c>
+      <c r="B147" t="s">
+        <v>549</v>
+      </c>
+      <c r="C147" t="s">
+        <v>550</v>
+      </c>
+      <c r="D147" t="s">
+        <v>551</v>
+      </c>
+      <c r="E147" t="s">
+        <v>41</v>
+      </c>
+      <c r="F147" t="s">
+        <v>552</v>
+      </c>
+      <c r="G147" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>554</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>361</v>
+      </c>
+      <c r="E148" t="s">
+        <v>316</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>556</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>6272450267</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" t="s">
+        <v>254</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>558</v>
+      </c>
+      <c r="B150" t="s">
+        <v>559</v>
+      </c>
+      <c r="C150" t="s">
+        <v>560</v>
+      </c>
+      <c r="D150" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" t="s">
+        <v>561</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>563</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>6433733000</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" t="s">
+        <v>564</v>
+      </c>
+      <c r="F151" t="s">
+        <v>565</v>
+      </c>
+      <c r="G151" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>567</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>422</v>
+      </c>
+      <c r="D152" t="s">
+        <v>371</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>569</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>570</v>
+      </c>
+      <c r="D153" t="s">
+        <v>259</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>572</v>
+      </c>
+      <c r="B154" t="s">
+        <v>573</v>
+      </c>
+      <c r="C154" t="s">
+        <v>300</v>
+      </c>
+      <c r="D154" t="s">
+        <v>149</v>
+      </c>
+      <c r="E154" t="s">
+        <v>254</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>575</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>576</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" t="s">
+        <v>577</v>
+      </c>
+      <c r="G155" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>579</v>
+      </c>
+      <c r="B156" t="s">
+        <v>580</v>
+      </c>
+      <c r="C156" t="s">
+        <v>581</v>
+      </c>
+      <c r="D156" t="s">
+        <v>582</v>
+      </c>
+      <c r="E156" t="s">
+        <v>583</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>585</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>586</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>587</v>
+      </c>
+      <c r="F157" t="s">
+        <v>588</v>
+      </c>
+      <c r="G157" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>590</v>
+      </c>
+      <c r="B158" t="s">
+        <v>591</v>
+      </c>
+      <c r="C158" t="s">
+        <v>592</v>
+      </c>
+      <c r="D158" t="s">
+        <v>593</v>
+      </c>
+      <c r="E158" t="s">
+        <v>594</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>596</v>
+      </c>
+      <c r="B159" t="s">
+        <v>597</v>
+      </c>
+      <c r="C159" t="s">
+        <v>598</v>
+      </c>
+      <c r="D159" t="s">
+        <v>599</v>
+      </c>
+      <c r="E159" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" t="s">
+        <v>600</v>
+      </c>
+      <c r="G159" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>602</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>603</v>
+      </c>
+      <c r="D160" t="s">
+        <v>356</v>
+      </c>
+      <c r="E160" t="s">
+        <v>76</v>
+      </c>
+      <c r="F160" t="s">
+        <v>604</v>
+      </c>
+      <c r="G160" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>606</v>
+      </c>
+      <c r="B161" t="s">
+        <v>607</v>
+      </c>
+      <c r="C161" t="s">
+        <v>608</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+      <c r="E161" t="s">
+        <v>609</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>611</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>612</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" t="s">
+        <v>613</v>
+      </c>
+      <c r="F162" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>615</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>616</v>
+      </c>
+      <c r="D163" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" t="s">
+        <v>372</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>618</v>
+      </c>
+      <c r="B164" t="s">
+        <v>619</v>
+      </c>
+      <c r="C164" t="s">
+        <v>620</v>
+      </c>
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" t="s">
+        <v>36</v>
+      </c>
+      <c r="F164" t="s">
+        <v>621</v>
+      </c>
+      <c r="G164" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>623</v>
+      </c>
+      <c r="B165" t="s">
+        <v>624</v>
+      </c>
+      <c r="C165" t="s">
+        <v>625</v>
+      </c>
+      <c r="D165" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" t="s">
+        <v>436</v>
+      </c>
+      <c r="F165" t="s">
+        <v>626</v>
+      </c>
+      <c r="G165" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>628</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>61</v>
+      </c>
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>629</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>630</v>
+      </c>
+      <c r="D167" t="s">
+        <v>149</v>
+      </c>
+      <c r="E167" t="s">
+        <v>280</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>632</v>
+      </c>
+      <c r="B168" t="s">
+        <v>633</v>
+      </c>
+      <c r="C168" t="s">
+        <v>634</v>
+      </c>
+      <c r="D168" t="s">
+        <v>89</v>
+      </c>
+      <c r="E168" t="s">
+        <v>76</v>
+      </c>
+      <c r="F168" t="s">
+        <v>635</v>
+      </c>
+      <c r="G168" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>637</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>638</v>
+      </c>
+      <c r="D169" t="s">
+        <v>639</v>
+      </c>
+      <c r="E169" t="s">
+        <v>640</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>642</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>61</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>643</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>644</v>
+      </c>
+      <c r="B172" t="s">
+        <v>645</v>
+      </c>
+      <c r="C172" t="s">
+        <v>646</v>
+      </c>
+      <c r="D172" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" t="s">
+        <v>647</v>
+      </c>
+      <c r="G172" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>649</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>61</v>
+      </c>
+      <c r="D173" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>650</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>61</v>
+      </c>
+      <c r="D174" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>651</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>800808780</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>652</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>61</v>
+      </c>
+      <c r="D176" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>653</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>654</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>61</v>
+      </c>
+      <c r="D178" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>655</v>
+      </c>
+      <c r="B179" t="s">
+        <v>656</v>
+      </c>
+      <c r="C179" t="s">
+        <v>657</v>
+      </c>
+      <c r="D179" t="s">
+        <v>124</v>
+      </c>
+      <c r="E179" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="s">
+        <v>658</v>
+      </c>
+      <c r="G179" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>660</v>
+      </c>
+      <c r="B180" t="s">
+        <v>661</v>
+      </c>
+      <c r="C180" t="s">
+        <v>662</v>
+      </c>
+      <c r="D180" t="s">
+        <v>149</v>
+      </c>
+      <c r="E180" t="s">
+        <v>76</v>
+      </c>
+      <c r="F180" t="s">
+        <v>663</v>
+      </c>
+      <c r="G180" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>665</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>666</v>
+      </c>
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" t="s">
+        <v>254</v>
+      </c>
+      <c r="F181" t="s">
+        <v>667</v>
+      </c>
+      <c r="G181" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>669</v>
+      </c>
+      <c r="B182" t="s">
+        <v>670</v>
+      </c>
+      <c r="C182" t="s">
+        <v>671</v>
+      </c>
+      <c r="D182" t="s">
+        <v>59</v>
+      </c>
+      <c r="E182" t="s">
+        <v>672</v>
+      </c>
+      <c r="F182" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>674</v>
+      </c>
+      <c r="B183" t="s">
+        <v>675</v>
+      </c>
+      <c r="C183" t="s">
+        <v>676</v>
+      </c>
+      <c r="D183" t="s">
+        <v>677</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>679</v>
+      </c>
+      <c r="B184" t="s">
+        <v>680</v>
+      </c>
+      <c r="C184" t="s">
+        <v>681</v>
+      </c>
+      <c r="D184" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>683</v>
+      </c>
+      <c r="B185" t="s">
+        <v>684</v>
+      </c>
+      <c r="C185" s="1">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>96</v>
+      </c>
+      <c r="E185" t="s">
+        <v>280</v>
+      </c>
+      <c r="F185" t="s">
+        <v>685</v>
+      </c>
+      <c r="G185" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>687</v>
+      </c>
+      <c r="B186" t="s">
+        <v>688</v>
+      </c>
+      <c r="C186">
+        <v>64</v>
+      </c>
+      <c r="D186" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186" t="s">
+        <v>76</v>
+      </c>
+      <c r="F186" t="s">
+        <v>689</v>
+      </c>
+      <c r="G186" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/nzx_scrape.xlsx
+++ b/nzx_scrape.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGPC\Documents\UiPath\softeng762-RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB7A3A-1F95-4FB1-890D-A72514BE2DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5A0513-1388-460B-A911-FF4F352FD69A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="3705" windowWidth="26985" windowHeight="15045" xr2:uid="{030087BA-9679-4CB3-8B5D-A7DC707A746C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="696">
   <si>
     <t>Company name</t>
   </si>
@@ -192,12 +192,6 @@
     <t>Brian Lee</t>
   </si>
   <si>
-    <t>/about-nzx/organization-structure</t>
-  </si>
-  <si>
-    <t>https://companyresearch.nzx.com</t>
-  </si>
-  <si>
     <t>AMP Limited</t>
   </si>
   <si>
@@ -2107,6 +2101,27 @@
   </si>
   <si>
     <t>http://z.co.nz</t>
+  </si>
+  <si>
+    <t>http://www.afcnz.com</t>
+  </si>
+  <si>
+    <t>http://www.aftpharm.com</t>
+  </si>
+  <si>
+    <t>https://accordant.nz/</t>
+  </si>
+  <si>
+    <t>http://www.aucklandairport.co.nz/</t>
+  </si>
+  <si>
+    <t>http://www.airnewzealand.com/</t>
+  </si>
+  <si>
+    <t>https://aucklandrealestate.co</t>
+  </si>
+  <si>
+    <t>http://www.alliedfarmers.co.nz/</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2546,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,7 +2592,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2600,7 +2615,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,7 +2638,7 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,7 +2661,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,7 +2684,7 @@
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,7 +2707,7 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,27 +2730,27 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -2743,7 +2758,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2752,7 +2767,7 @@
         <v>61386547597</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -2766,13 +2781,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -2789,7 +2804,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2798,13 +2813,13 @@
         <v>6493006161</v>
       </c>
       <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -2812,10 +2827,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>6493569800</v>
@@ -2827,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -2835,10 +2850,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>6493043400</v>
@@ -2847,10 +2862,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -2858,22 +2873,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -2881,13 +2896,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -2904,13 +2919,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2927,13 +2942,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -2950,13 +2965,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -2973,7 +2988,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2982,13 +2997,13 @@
         <v>6499729802</v>
       </c>
       <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" t="s">
-        <v>85</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -2996,7 +3011,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -3019,19 +3034,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -3042,19 +3057,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -3065,19 +3080,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -3088,7 +3103,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -3097,44 +3112,44 @@
         <v>-2E-3</v>
       </c>
       <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
         <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>102</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>104</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -3157,16 +3172,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -3175,21 +3190,21 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -3198,21 +3213,21 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -3221,44 +3236,44 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
         <v>117</v>
-      </c>
-      <c r="B34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
         <v>122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>124</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
@@ -3267,35 +3282,35 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
         <v>126</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
         <v>127</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>128</v>
       </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>129</v>
-      </c>
-      <c r="F36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -3310,182 +3325,182 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>136</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>137</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
         <v>138</v>
-      </c>
-      <c r="E38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
         <v>142</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>143</v>
       </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>144</v>
-      </c>
-      <c r="F39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
         <v>147</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
         <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
         <v>151</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" t="s">
-        <v>153</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
         <v>156</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>157</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>158</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>159</v>
-      </c>
-      <c r="F42" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>163</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
         <v>164</v>
-      </c>
-      <c r="E43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
       </c>
       <c r="E44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" t="s">
         <v>169</v>
-      </c>
-      <c r="F44" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
@@ -3497,18 +3512,18 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
         <v>174</v>
-      </c>
-      <c r="B46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -3517,44 +3532,44 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
         <v>179</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>180</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>181</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>182</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>183</v>
-      </c>
-      <c r="F47" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -3571,13 +3586,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -3594,59 +3609,59 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
         <v>188</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>189</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
         <v>190</v>
-      </c>
-      <c r="E50" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D51" t="s">
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -3663,13 +3678,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
@@ -3681,18 +3696,18 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
@@ -3709,82 +3724,82 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" t="s">
         <v>201</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
         <v>202</v>
-      </c>
-      <c r="D55" t="s">
-        <v>203</v>
-      </c>
-      <c r="E55" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
         <v>205</v>
       </c>
-      <c r="B56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" t="s">
-        <v>207</v>
-      </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
         <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
         <v>210</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
         <v>211</v>
-      </c>
-      <c r="D57" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -3796,58 +3811,58 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>216</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="G59" t="s">
         <v>217</v>
-      </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>218</v>
-      </c>
-      <c r="G59" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" t="s">
         <v>220</v>
       </c>
-      <c r="B60" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" t="s">
-        <v>222</v>
-      </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -3859,24 +3874,24 @@
         <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" t="s">
         <v>227</v>
-      </c>
-      <c r="B62" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" t="s">
-        <v>229</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -3888,18 +3903,18 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
@@ -3911,173 +3926,173 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" t="s">
         <v>232</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
         <v>233</v>
-      </c>
-      <c r="D64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" t="s">
-        <v>234</v>
-      </c>
-      <c r="F64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" t="s">
         <v>232</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
         <v>233</v>
-      </c>
-      <c r="D65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" t="s">
-        <v>234</v>
-      </c>
-      <c r="F65" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" t="s">
         <v>236</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>237</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" t="s">
         <v>238</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>239</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>240</v>
-      </c>
-      <c r="G66" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" t="s">
         <v>242</v>
       </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="F67" t="s">
         <v>243</v>
       </c>
-      <c r="D67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>244</v>
-      </c>
-      <c r="F67" t="s">
-        <v>245</v>
-      </c>
-      <c r="G67" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" t="s">
         <v>251</v>
-      </c>
-      <c r="B69" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" t="s">
-        <v>253</v>
       </c>
       <c r="D69" t="s">
         <v>21</v>
       </c>
       <c r="E69" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" t="s">
         <v>254</v>
-      </c>
-      <c r="F69" t="s">
-        <v>255</v>
-      </c>
-      <c r="G69" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C70">
         <v>6493079119</v>
       </c>
       <c r="D70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" t="s">
         <v>259</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>260</v>
-      </c>
-      <c r="F70" t="s">
-        <v>261</v>
-      </c>
-      <c r="G70" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -4086,159 +4101,159 @@
         <v>220965576</v>
       </c>
       <c r="D71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" t="s">
         <v>268</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" t="s">
         <v>269</v>
       </c>
-      <c r="C73" t="s">
+      <c r="G73" t="s">
         <v>270</v>
-      </c>
-      <c r="D73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" t="s">
-        <v>271</v>
-      </c>
-      <c r="G73" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" t="s">
         <v>273</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
         <v>274</v>
-      </c>
-      <c r="D74" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" t="s">
         <v>277</v>
-      </c>
-      <c r="B75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C75" t="s">
-        <v>279</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
       </c>
       <c r="E75" t="s">
+        <v>278</v>
+      </c>
+      <c r="F75" t="s">
+        <v>279</v>
+      </c>
+      <c r="G75" t="s">
         <v>280</v>
-      </c>
-      <c r="F75" t="s">
-        <v>281</v>
-      </c>
-      <c r="G75" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
         <v>283</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
         <v>284</v>
-      </c>
-      <c r="C76" t="s">
-        <v>285</v>
-      </c>
-      <c r="D76" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" t="s">
-        <v>76</v>
-      </c>
-      <c r="F76" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" t="s">
         <v>287</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" t="s">
         <v>288</v>
       </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
         <v>289</v>
-      </c>
-      <c r="E77" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" t="s">
-        <v>290</v>
-      </c>
-      <c r="G77" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -4247,119 +4262,119 @@
         <v>6444733663</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s">
         <v>295</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="G79" t="s">
         <v>296</v>
-      </c>
-      <c r="D79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E79" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" t="s">
-        <v>297</v>
-      </c>
-      <c r="G79" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" t="s">
+        <v>252</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
         <v>299</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>300</v>
-      </c>
-      <c r="D80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" t="s">
-        <v>254</v>
-      </c>
-      <c r="F80" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" t="s">
         <v>302</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
         <v>303</v>
-      </c>
-      <c r="C81" t="s">
-        <v>304</v>
-      </c>
-      <c r="D81" t="s">
-        <v>96</v>
-      </c>
-      <c r="E81" t="s">
-        <v>71</v>
-      </c>
-      <c r="F81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s">
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D83" t="s">
         <v>25</v>
@@ -4376,16 +4391,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E84" t="s">
         <v>41</v>
@@ -4394,87 +4409,87 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" t="s">
         <v>314</v>
       </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="F85" t="s">
         <v>315</v>
       </c>
-      <c r="D85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>316</v>
-      </c>
-      <c r="F85" t="s">
-        <v>317</v>
-      </c>
-      <c r="G85" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" t="s">
         <v>319</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86" t="s">
+        <v>278</v>
+      </c>
+      <c r="F86" t="s">
         <v>320</v>
       </c>
-      <c r="C86" t="s">
+      <c r="G86" t="s">
         <v>321</v>
-      </c>
-      <c r="D86" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" t="s">
-        <v>280</v>
-      </c>
-      <c r="F86" t="s">
-        <v>322</v>
-      </c>
-      <c r="G86" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>322</v>
+      </c>
+      <c r="B87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" t="s">
         <v>324</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>325</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>326</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>327</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>328</v>
-      </c>
-      <c r="F87" t="s">
-        <v>329</v>
-      </c>
-      <c r="G87" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
@@ -4491,16 +4506,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" t="s">
         <v>41</v>
@@ -4509,21 +4524,21 @@
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
         <v>41</v>
@@ -4532,41 +4547,41 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" t="s">
         <v>335</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s">
         <v>336</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91" t="s">
         <v>337</v>
-      </c>
-      <c r="D91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" t="s">
-        <v>76</v>
-      </c>
-      <c r="F91" t="s">
-        <v>338</v>
-      </c>
-      <c r="G91" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
         <v>25</v>
@@ -4578,159 +4593,159 @@
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" t="s">
+        <v>340</v>
+      </c>
+      <c r="C93" t="s">
         <v>341</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>342</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" t="s">
         <v>343</v>
       </c>
-      <c r="D93" t="s">
+      <c r="G93" t="s">
         <v>344</v>
-      </c>
-      <c r="E93" t="s">
-        <v>76</v>
-      </c>
-      <c r="F93" t="s">
-        <v>345</v>
-      </c>
-      <c r="G93" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" t="s">
+        <v>346</v>
+      </c>
+      <c r="C94" t="s">
         <v>347</v>
-      </c>
-      <c r="B94" t="s">
-        <v>348</v>
-      </c>
-      <c r="C94" t="s">
-        <v>349</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
       </c>
       <c r="E94" t="s">
+        <v>348</v>
+      </c>
+      <c r="F94" t="s">
+        <v>349</v>
+      </c>
+      <c r="G94" t="s">
         <v>350</v>
-      </c>
-      <c r="F94" t="s">
-        <v>351</v>
-      </c>
-      <c r="G94" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>351</v>
+      </c>
+      <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" t="s">
         <v>353</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>354</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" t="s">
         <v>355</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>356</v>
-      </c>
-      <c r="E95" t="s">
-        <v>76</v>
-      </c>
-      <c r="F95" t="s">
-        <v>357</v>
-      </c>
-      <c r="G95" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>357</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>358</v>
+      </c>
+      <c r="D96" t="s">
         <v>359</v>
       </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>360</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
         <v>361</v>
-      </c>
-      <c r="E96" t="s">
-        <v>362</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>362</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" t="s">
         <v>364</v>
       </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>365</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
         <v>366</v>
-      </c>
-      <c r="E97" t="s">
-        <v>367</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C98">
         <v>6498377540</v>
       </c>
       <c r="D98" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" t="s">
         <v>371</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>372</v>
-      </c>
-      <c r="F98" t="s">
-        <v>373</v>
-      </c>
-      <c r="G98" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E99" t="s">
         <v>41</v>
@@ -4739,21 +4754,21 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
         <v>41</v>
@@ -4762,90 +4777,90 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B101" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C101">
         <v>6494325033</v>
       </c>
       <c r="D101" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F101" t="s">
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E102" t="s">
         <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>383</v>
+      </c>
+      <c r="B103" t="s">
+        <v>384</v>
+      </c>
+      <c r="C103" t="s">
         <v>385</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
+        <v>147</v>
+      </c>
+      <c r="E103" t="s">
+        <v>252</v>
+      </c>
+      <c r="F103" t="s">
         <v>386</v>
       </c>
-      <c r="C103" t="s">
+      <c r="G103" t="s">
         <v>387</v>
-      </c>
-      <c r="D103" t="s">
-        <v>149</v>
-      </c>
-      <c r="E103" t="s">
-        <v>254</v>
-      </c>
-      <c r="F103" t="s">
-        <v>388</v>
-      </c>
-      <c r="G103" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -4854,18 +4869,18 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
         <v>25</v>
@@ -4877,12 +4892,12 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -4900,18 +4915,18 @@
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
         <v>25</v>
@@ -4923,133 +4938,133 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>394</v>
+      </c>
+      <c r="B108" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" t="s">
         <v>396</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" t="s">
         <v>397</v>
       </c>
-      <c r="C108" t="s">
+      <c r="G108" t="s">
         <v>398</v>
-      </c>
-      <c r="D108" t="s">
-        <v>83</v>
-      </c>
-      <c r="E108" t="s">
-        <v>254</v>
-      </c>
-      <c r="F108" t="s">
-        <v>399</v>
-      </c>
-      <c r="G108" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>399</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>400</v>
+      </c>
+      <c r="D109" t="s">
         <v>401</v>
       </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
+        <v>314</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
         <v>402</v>
-      </c>
-      <c r="D109" t="s">
-        <v>403</v>
-      </c>
-      <c r="E109" t="s">
-        <v>316</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>399</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" t="s">
         <v>401</v>
       </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
+        <v>314</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
         <v>402</v>
-      </c>
-      <c r="D110" t="s">
-        <v>403</v>
-      </c>
-      <c r="E110" t="s">
-        <v>316</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>403</v>
+      </c>
+      <c r="B111" t="s">
+        <v>404</v>
+      </c>
+      <c r="C111" t="s">
         <v>405</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
+        <v>369</v>
+      </c>
+      <c r="E111" t="s">
         <v>406</v>
       </c>
-      <c r="C111" t="s">
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
         <v>407</v>
-      </c>
-      <c r="D111" t="s">
-        <v>371</v>
-      </c>
-      <c r="E111" t="s">
-        <v>408</v>
-      </c>
-      <c r="F111" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" t="s">
+        <v>409</v>
+      </c>
+      <c r="C112" t="s">
         <v>410</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
+        <v>151</v>
+      </c>
+      <c r="E112" t="s">
         <v>411</v>
       </c>
-      <c r="C112" t="s">
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
         <v>412</v>
-      </c>
-      <c r="D112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E112" t="s">
-        <v>413</v>
-      </c>
-      <c r="F112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D113" t="s">
         <v>25</v>
@@ -5061,18 +5076,18 @@
         <v>8</v>
       </c>
       <c r="G113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D114" t="s">
         <v>25</v>
@@ -5084,12 +5099,12 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -5112,39 +5127,39 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>416</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>417</v>
+      </c>
+      <c r="D116" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
         <v>418</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>419</v>
-      </c>
-      <c r="D116" t="s">
-        <v>56</v>
-      </c>
-      <c r="E116" t="s">
-        <v>76</v>
-      </c>
-      <c r="F116" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D117" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -5153,35 +5168,35 @@
         <v>8</v>
       </c>
       <c r="G117" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" t="s">
         <v>424</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" t="s">
         <v>425</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
         <v>426</v>
       </c>
-      <c r="D118" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>427</v>
-      </c>
-      <c r="F118" t="s">
-        <v>428</v>
-      </c>
-      <c r="G118" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -5190,96 +5205,96 @@
         <v>6444952424</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F119" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G119" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>431</v>
+      </c>
+      <c r="B120" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" t="s">
         <v>433</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
+        <v>81</v>
+      </c>
+      <c r="E120" t="s">
         <v>434</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
         <v>435</v>
       </c>
-      <c r="D120" t="s">
-        <v>83</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="G120" t="s">
         <v>436</v>
-      </c>
-      <c r="F120" t="s">
-        <v>437</v>
-      </c>
-      <c r="G120" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>437</v>
+      </c>
+      <c r="B121" t="s">
+        <v>438</v>
+      </c>
+      <c r="C121" t="s">
         <v>439</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
         <v>440</v>
       </c>
-      <c r="C121" t="s">
+      <c r="G121" t="s">
         <v>441</v>
-      </c>
-      <c r="D121" t="s">
-        <v>59</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>442</v>
-      </c>
-      <c r="G121" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>442</v>
+      </c>
+      <c r="B122" t="s">
+        <v>443</v>
+      </c>
+      <c r="C122" t="s">
         <v>444</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" t="s">
         <v>445</v>
       </c>
-      <c r="C122" t="s">
+      <c r="F122" t="s">
         <v>446</v>
       </c>
-      <c r="D122" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="G122" t="s">
         <v>447</v>
-      </c>
-      <c r="F122" t="s">
-        <v>448</v>
-      </c>
-      <c r="G122" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D123" t="s">
         <v>25</v>
@@ -5291,136 +5306,136 @@
         <v>8</v>
       </c>
       <c r="G123" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>449</v>
+      </c>
+      <c r="B124" t="s">
+        <v>450</v>
+      </c>
+      <c r="C124" t="s">
         <v>451</v>
       </c>
-      <c r="B124" t="s">
-        <v>452</v>
-      </c>
-      <c r="C124" t="s">
-        <v>453</v>
-      </c>
       <c r="D124" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E124" t="s">
         <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G124" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>449</v>
+      </c>
+      <c r="B125" t="s">
+        <v>450</v>
+      </c>
+      <c r="C125" t="s">
         <v>451</v>
       </c>
-      <c r="B125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C125" t="s">
-        <v>453</v>
-      </c>
       <c r="D125" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E125" t="s">
         <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G125" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>454</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>455</v>
+      </c>
+      <c r="D126" t="s">
         <v>456</v>
       </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
+        <v>103</v>
+      </c>
+      <c r="F126" t="s">
         <v>457</v>
       </c>
-      <c r="D126" t="s">
+      <c r="G126" t="s">
         <v>458</v>
-      </c>
-      <c r="E126" t="s">
-        <v>105</v>
-      </c>
-      <c r="F126" t="s">
-        <v>459</v>
-      </c>
-      <c r="G126" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>459</v>
+      </c>
+      <c r="B127" t="s">
+        <v>460</v>
+      </c>
+      <c r="C127" t="s">
         <v>461</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127" t="s">
+        <v>314</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
         <v>462</v>
-      </c>
-      <c r="C127" t="s">
-        <v>463</v>
-      </c>
-      <c r="D127" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" t="s">
-        <v>316</v>
-      </c>
-      <c r="F127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>463</v>
+      </c>
+      <c r="B128" t="s">
+        <v>464</v>
+      </c>
+      <c r="C128" t="s">
         <v>465</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
+        <v>354</v>
+      </c>
+      <c r="E128" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" t="s">
         <v>466</v>
       </c>
-      <c r="C128" t="s">
+      <c r="G128" t="s">
         <v>467</v>
-      </c>
-      <c r="D128" t="s">
-        <v>356</v>
-      </c>
-      <c r="E128" t="s">
-        <v>76</v>
-      </c>
-      <c r="F128" t="s">
-        <v>468</v>
-      </c>
-      <c r="G128" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" t="s">
+        <v>469</v>
+      </c>
+      <c r="C129" t="s">
         <v>470</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>471</v>
-      </c>
-      <c r="C129" t="s">
-        <v>472</v>
-      </c>
-      <c r="D129" t="s">
-        <v>473</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -5429,21 +5444,21 @@
         <v>8</v>
       </c>
       <c r="G129" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D130" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -5452,176 +5467,176 @@
         <v>8</v>
       </c>
       <c r="G130" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>476</v>
+      </c>
+      <c r="B131" t="s">
+        <v>477</v>
+      </c>
+      <c r="C131" t="s">
         <v>478</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
+        <v>156</v>
+      </c>
+      <c r="E131" t="s">
         <v>479</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
         <v>480</v>
       </c>
-      <c r="D131" t="s">
-        <v>158</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="G131" t="s">
         <v>481</v>
-      </c>
-      <c r="F131" t="s">
-        <v>482</v>
-      </c>
-      <c r="G131" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>482</v>
+      </c>
+      <c r="B132" t="s">
+        <v>483</v>
+      </c>
+      <c r="C132" t="s">
         <v>484</v>
-      </c>
-      <c r="B132" t="s">
-        <v>485</v>
-      </c>
-      <c r="C132" t="s">
-        <v>486</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D133" t="s">
         <v>21</v>
       </c>
       <c r="E133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
         <v>8</v>
       </c>
       <c r="G133" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G134" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>494</v>
+      </c>
+      <c r="B135" t="s">
+        <v>495</v>
+      </c>
+      <c r="C135" t="s">
         <v>496</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
+        <v>425</v>
+      </c>
+      <c r="E135" t="s">
+        <v>425</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" t="s">
         <v>497</v>
-      </c>
-      <c r="C135" t="s">
-        <v>498</v>
-      </c>
-      <c r="D135" t="s">
-        <v>427</v>
-      </c>
-      <c r="E135" t="s">
-        <v>427</v>
-      </c>
-      <c r="F135" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>498</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
         <v>500</v>
       </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
         <v>501</v>
-      </c>
-      <c r="D136" t="s">
-        <v>502</v>
-      </c>
-      <c r="E136" t="s">
-        <v>260</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E137" t="s">
         <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G137" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B138" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C138">
         <v>6495258700</v>
@@ -5633,136 +5648,136 @@
         <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G138" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>510</v>
+      </c>
+      <c r="B139" t="s">
+        <v>511</v>
+      </c>
+      <c r="C139" t="s">
         <v>512</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
+        <v>287</v>
+      </c>
+      <c r="E139" t="s">
+        <v>411</v>
+      </c>
+      <c r="F139" t="s">
         <v>513</v>
       </c>
-      <c r="C139" t="s">
+      <c r="G139" t="s">
         <v>514</v>
-      </c>
-      <c r="D139" t="s">
-        <v>289</v>
-      </c>
-      <c r="E139" t="s">
-        <v>413</v>
-      </c>
-      <c r="F139" t="s">
-        <v>515</v>
-      </c>
-      <c r="G139" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>515</v>
+      </c>
+      <c r="B140" t="s">
+        <v>516</v>
+      </c>
+      <c r="C140" t="s">
         <v>517</v>
-      </c>
-      <c r="B140" t="s">
-        <v>518</v>
-      </c>
-      <c r="C140" t="s">
-        <v>519</v>
       </c>
       <c r="D140" t="s">
         <v>21</v>
       </c>
       <c r="E140" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F140" t="s">
         <v>8</v>
       </c>
       <c r="G140" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>519</v>
+      </c>
+      <c r="B141" t="s">
+        <v>520</v>
+      </c>
+      <c r="C141" t="s">
         <v>521</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" t="s">
+        <v>314</v>
+      </c>
+      <c r="F141" t="s">
         <v>522</v>
       </c>
-      <c r="C141" t="s">
+      <c r="G141" t="s">
         <v>523</v>
-      </c>
-      <c r="D141" t="s">
-        <v>124</v>
-      </c>
-      <c r="E141" t="s">
-        <v>316</v>
-      </c>
-      <c r="F141" t="s">
-        <v>524</v>
-      </c>
-      <c r="G141" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D142" t="s">
         <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F142" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G142" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>528</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>529</v>
+      </c>
+      <c r="D143" t="s">
+        <v>102</v>
+      </c>
+      <c r="E143" t="s">
         <v>530</v>
       </c>
-      <c r="B143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="F143" t="s">
         <v>531</v>
       </c>
-      <c r="D143" t="s">
-        <v>104</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="G143" t="s">
         <v>532</v>
-      </c>
-      <c r="F143" t="s">
-        <v>533</v>
-      </c>
-      <c r="G143" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>533</v>
+      </c>
+      <c r="B144" t="s">
+        <v>534</v>
+      </c>
+      <c r="C144" t="s">
         <v>535</v>
-      </c>
-      <c r="B144" t="s">
-        <v>536</v>
-      </c>
-      <c r="C144" t="s">
-        <v>537</v>
       </c>
       <c r="D144" t="s">
         <v>25</v>
@@ -5771,15 +5786,15 @@
         <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G144" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -5788,67 +5803,67 @@
         <v>6499707700</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F145" t="s">
         <v>8</v>
       </c>
       <c r="G145" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>541</v>
+      </c>
+      <c r="B146" t="s">
+        <v>542</v>
+      </c>
+      <c r="C146" t="s">
         <v>543</v>
-      </c>
-      <c r="B146" t="s">
-        <v>544</v>
-      </c>
-      <c r="C146" t="s">
-        <v>545</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
       </c>
       <c r="E146" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F146" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G146" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>546</v>
+      </c>
+      <c r="B147" t="s">
+        <v>547</v>
+      </c>
+      <c r="C147" t="s">
         <v>548</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
         <v>549</v>
-      </c>
-      <c r="C147" t="s">
-        <v>550</v>
-      </c>
-      <c r="D147" t="s">
-        <v>551</v>
       </c>
       <c r="E147" t="s">
         <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G147" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -5857,21 +5872,21 @@
         <v>-1.8E-3</v>
       </c>
       <c r="D148" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E148" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F148" t="s">
         <v>8</v>
       </c>
       <c r="G148" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -5883,41 +5898,41 @@
         <v>21</v>
       </c>
       <c r="E149" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F149" t="s">
         <v>8</v>
       </c>
       <c r="G149" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>556</v>
+      </c>
+      <c r="B150" t="s">
+        <v>557</v>
+      </c>
+      <c r="C150" t="s">
         <v>558</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
+        <v>94</v>
+      </c>
+      <c r="E150" t="s">
         <v>559</v>
       </c>
-      <c r="C150" t="s">
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
         <v>560</v>
-      </c>
-      <c r="D150" t="s">
-        <v>96</v>
-      </c>
-      <c r="E150" t="s">
-        <v>561</v>
-      </c>
-      <c r="F150" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -5929,27 +5944,27 @@
         <v>21</v>
       </c>
       <c r="E151" t="s">
+        <v>562</v>
+      </c>
+      <c r="F151" t="s">
+        <v>563</v>
+      </c>
+      <c r="G151" t="s">
         <v>564</v>
-      </c>
-      <c r="F151" t="s">
-        <v>565</v>
-      </c>
-      <c r="G151" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
@@ -5958,21 +5973,21 @@
         <v>8</v>
       </c>
       <c r="G152" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D153" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -5981,41 +5996,41 @@
         <v>8</v>
       </c>
       <c r="G153" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>570</v>
+      </c>
+      <c r="B154" t="s">
+        <v>571</v>
+      </c>
+      <c r="C154" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154" t="s">
+        <v>252</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
         <v>572</v>
-      </c>
-      <c r="B154" t="s">
-        <v>573</v>
-      </c>
-      <c r="C154" t="s">
-        <v>300</v>
-      </c>
-      <c r="D154" t="s">
-        <v>149</v>
-      </c>
-      <c r="E154" t="s">
-        <v>254</v>
-      </c>
-      <c r="F154" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D155" t="s">
         <v>21</v>
@@ -6024,205 +6039,205 @@
         <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G155" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>577</v>
+      </c>
+      <c r="B156" t="s">
+        <v>578</v>
+      </c>
+      <c r="C156" t="s">
         <v>579</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>580</v>
       </c>
-      <c r="C156" t="s">
+      <c r="E156" t="s">
         <v>581</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
         <v>582</v>
-      </c>
-      <c r="E156" t="s">
-        <v>583</v>
-      </c>
-      <c r="F156" t="s">
-        <v>8</v>
-      </c>
-      <c r="G156" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D157" t="s">
         <v>25</v>
       </c>
       <c r="E157" t="s">
+        <v>585</v>
+      </c>
+      <c r="F157" t="s">
+        <v>586</v>
+      </c>
+      <c r="G157" t="s">
         <v>587</v>
-      </c>
-      <c r="F157" t="s">
-        <v>588</v>
-      </c>
-      <c r="G157" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>588</v>
+      </c>
+      <c r="B158" t="s">
+        <v>589</v>
+      </c>
+      <c r="C158" t="s">
         <v>590</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>591</v>
       </c>
-      <c r="C158" t="s">
+      <c r="E158" t="s">
         <v>592</v>
       </c>
-      <c r="D158" t="s">
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
         <v>593</v>
-      </c>
-      <c r="E158" t="s">
-        <v>594</v>
-      </c>
-      <c r="F158" t="s">
-        <v>8</v>
-      </c>
-      <c r="G158" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>594</v>
+      </c>
+      <c r="B159" t="s">
+        <v>595</v>
+      </c>
+      <c r="C159" t="s">
         <v>596</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>597</v>
-      </c>
-      <c r="C159" t="s">
-        <v>598</v>
-      </c>
-      <c r="D159" t="s">
-        <v>599</v>
       </c>
       <c r="E159" t="s">
         <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G159" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>600</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>601</v>
+      </c>
+      <c r="D160" t="s">
+        <v>354</v>
+      </c>
+      <c r="E160" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s">
         <v>602</v>
       </c>
-      <c r="B160" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="G160" t="s">
         <v>603</v>
-      </c>
-      <c r="D160" t="s">
-        <v>356</v>
-      </c>
-      <c r="E160" t="s">
-        <v>76</v>
-      </c>
-      <c r="F160" t="s">
-        <v>604</v>
-      </c>
-      <c r="G160" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>604</v>
+      </c>
+      <c r="B161" t="s">
+        <v>605</v>
+      </c>
+      <c r="C161" t="s">
         <v>606</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
+        <v>354</v>
+      </c>
+      <c r="E161" t="s">
         <v>607</v>
       </c>
-      <c r="C161" t="s">
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
         <v>608</v>
-      </c>
-      <c r="D161" t="s">
-        <v>356</v>
-      </c>
-      <c r="E161" t="s">
-        <v>609</v>
-      </c>
-      <c r="F161" t="s">
-        <v>8</v>
-      </c>
-      <c r="G161" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D162" t="s">
         <v>18</v>
       </c>
       <c r="E162" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F162" t="s">
         <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>613</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>614</v>
+      </c>
+      <c r="D163" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" t="s">
+        <v>370</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
         <v>615</v>
-      </c>
-      <c r="B163" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" t="s">
-        <v>616</v>
-      </c>
-      <c r="D163" t="s">
-        <v>98</v>
-      </c>
-      <c r="E163" t="s">
-        <v>372</v>
-      </c>
-      <c r="F163" t="s">
-        <v>8</v>
-      </c>
-      <c r="G163" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>616</v>
+      </c>
+      <c r="B164" t="s">
+        <v>617</v>
+      </c>
+      <c r="C164" t="s">
         <v>618</v>
-      </c>
-      <c r="B164" t="s">
-        <v>619</v>
-      </c>
-      <c r="C164" t="s">
-        <v>620</v>
       </c>
       <c r="D164" t="s">
         <v>21</v>
@@ -6231,44 +6246,44 @@
         <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G164" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>621</v>
+      </c>
+      <c r="B165" t="s">
+        <v>622</v>
+      </c>
+      <c r="C165" t="s">
         <v>623</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
+        <v>94</v>
+      </c>
+      <c r="E165" t="s">
+        <v>434</v>
+      </c>
+      <c r="F165" t="s">
         <v>624</v>
       </c>
-      <c r="C165" t="s">
+      <c r="G165" t="s">
         <v>625</v>
-      </c>
-      <c r="D165" t="s">
-        <v>96</v>
-      </c>
-      <c r="E165" t="s">
-        <v>436</v>
-      </c>
-      <c r="F165" t="s">
-        <v>626</v>
-      </c>
-      <c r="G165" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D166" t="s">
         <v>25</v>
@@ -6280,87 +6295,87 @@
         <v>8</v>
       </c>
       <c r="G166" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>627</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>628</v>
+      </c>
+      <c r="D167" t="s">
+        <v>147</v>
+      </c>
+      <c r="E167" t="s">
+        <v>278</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
         <v>629</v>
-      </c>
-      <c r="B167" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" t="s">
-        <v>630</v>
-      </c>
-      <c r="D167" t="s">
-        <v>149</v>
-      </c>
-      <c r="E167" t="s">
-        <v>280</v>
-      </c>
-      <c r="F167" t="s">
-        <v>8</v>
-      </c>
-      <c r="G167" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>630</v>
+      </c>
+      <c r="B168" t="s">
+        <v>631</v>
+      </c>
+      <c r="C168" t="s">
         <v>632</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
+        <v>87</v>
+      </c>
+      <c r="E168" t="s">
+        <v>74</v>
+      </c>
+      <c r="F168" t="s">
         <v>633</v>
       </c>
-      <c r="C168" t="s">
+      <c r="G168" t="s">
         <v>634</v>
-      </c>
-      <c r="D168" t="s">
-        <v>89</v>
-      </c>
-      <c r="E168" t="s">
-        <v>76</v>
-      </c>
-      <c r="F168" t="s">
-        <v>635</v>
-      </c>
-      <c r="G168" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>635</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>636</v>
+      </c>
+      <c r="D169" t="s">
         <v>637</v>
       </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="E169" t="s">
         <v>638</v>
       </c>
-      <c r="D169" t="s">
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
         <v>639</v>
-      </c>
-      <c r="E169" t="s">
-        <v>640</v>
-      </c>
-      <c r="F169" t="s">
-        <v>8</v>
-      </c>
-      <c r="G169" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D170" t="s">
         <v>25</v>
@@ -6372,12 +6387,12 @@
         <v>8</v>
       </c>
       <c r="G170" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
@@ -6395,41 +6410,41 @@
         <v>8</v>
       </c>
       <c r="G171" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>642</v>
+      </c>
+      <c r="B172" t="s">
+        <v>643</v>
+      </c>
+      <c r="C172" t="s">
         <v>644</v>
       </c>
-      <c r="B172" t="s">
-        <v>645</v>
-      </c>
-      <c r="C172" t="s">
-        <v>646</v>
-      </c>
       <c r="D172" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E172" t="s">
         <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G172" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D173" t="s">
         <v>25</v>
@@ -6446,13 +6461,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D174" t="s">
         <v>25</v>
@@ -6464,12 +6479,12 @@
         <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -6487,18 +6502,18 @@
         <v>8</v>
       </c>
       <c r="G175" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D176" t="s">
         <v>25</v>
@@ -6510,12 +6525,12 @@
         <v>8</v>
       </c>
       <c r="G176" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -6533,18 +6548,18 @@
         <v>8</v>
       </c>
       <c r="G177" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D178" t="s">
         <v>25</v>
@@ -6556,133 +6571,133 @@
         <v>8</v>
       </c>
       <c r="G178" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>653</v>
+      </c>
+      <c r="B179" t="s">
+        <v>654</v>
+      </c>
+      <c r="C179" t="s">
         <v>655</v>
       </c>
-      <c r="B179" t="s">
-        <v>656</v>
-      </c>
-      <c r="C179" t="s">
-        <v>657</v>
-      </c>
       <c r="D179" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E179" t="s">
         <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G179" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>658</v>
+      </c>
+      <c r="B180" t="s">
+        <v>659</v>
+      </c>
+      <c r="C180" t="s">
         <v>660</v>
       </c>
-      <c r="B180" t="s">
+      <c r="D180" t="s">
+        <v>147</v>
+      </c>
+      <c r="E180" t="s">
+        <v>74</v>
+      </c>
+      <c r="F180" t="s">
         <v>661</v>
       </c>
-      <c r="C180" t="s">
+      <c r="G180" t="s">
         <v>662</v>
-      </c>
-      <c r="D180" t="s">
-        <v>149</v>
-      </c>
-      <c r="E180" t="s">
-        <v>76</v>
-      </c>
-      <c r="F180" t="s">
-        <v>663</v>
-      </c>
-      <c r="G180" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D181" t="s">
         <v>30</v>
       </c>
       <c r="E181" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F181" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G181" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>667</v>
+      </c>
+      <c r="B182" t="s">
+        <v>668</v>
+      </c>
+      <c r="C182" t="s">
         <v>669</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
+        <v>57</v>
+      </c>
+      <c r="E182" t="s">
         <v>670</v>
       </c>
-      <c r="C182" t="s">
+      <c r="F182" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" t="s">
         <v>671</v>
-      </c>
-      <c r="D182" t="s">
-        <v>59</v>
-      </c>
-      <c r="E182" t="s">
-        <v>672</v>
-      </c>
-      <c r="F182" t="s">
-        <v>8</v>
-      </c>
-      <c r="G182" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>672</v>
+      </c>
+      <c r="B183" t="s">
+        <v>673</v>
+      </c>
+      <c r="C183" t="s">
         <v>674</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" t="s">
         <v>675</v>
       </c>
-      <c r="C183" t="s">
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" t="s">
         <v>676</v>
-      </c>
-      <c r="D183" t="s">
-        <v>677</v>
-      </c>
-      <c r="E183" t="s">
-        <v>8</v>
-      </c>
-      <c r="F183" t="s">
-        <v>8</v>
-      </c>
-      <c r="G183" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>677</v>
+      </c>
+      <c r="B184" t="s">
+        <v>678</v>
+      </c>
+      <c r="C184" t="s">
         <v>679</v>
-      </c>
-      <c r="B184" t="s">
-        <v>680</v>
-      </c>
-      <c r="C184" t="s">
-        <v>681</v>
       </c>
       <c r="D184" t="s">
         <v>21</v>
@@ -6694,38 +6709,38 @@
         <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B185" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C185" s="1">
         <v>-1.9E-3</v>
       </c>
       <c r="D185" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E185" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F185" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G185" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B186" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C186">
         <v>64</v>
@@ -6734,13 +6749,13 @@
         <v>25</v>
       </c>
       <c r="E186" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F186" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G186" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
